--- a/xjh/pictures/第四章/pictures.xlsx
+++ b/xjh/pictures/第四章/pictures.xlsx
@@ -8,23 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xjh/thesis/xjh/pictures/第四章/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437773F0-B24F-4047-9C7E-8CEAA3F5FC9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F26FFF0-C21F-DE40-A8BB-55AB7FC458EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{3023509B-8782-0248-A960-7BF2A7E53CDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$10</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$11</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$12</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$10:$D$10</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$11:$D$11</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$12:$D$12</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$B$9:$D$9</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$58</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$59:$A$65</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$58</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$59:$B$65</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$58</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$C$59:$C$65</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$D$58</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$D$59:$D$65</definedName>
+    <definedName name="_xlchart.v2.10" hidden="1">Sheet1!$B$58</definedName>
+    <definedName name="_xlchart.v2.11" hidden="1">Sheet1!$B$59:$B$65</definedName>
+    <definedName name="_xlchart.v2.12" hidden="1">Sheet1!$C$58</definedName>
+    <definedName name="_xlchart.v2.13" hidden="1">Sheet1!$C$59:$C$65</definedName>
+    <definedName name="_xlchart.v2.14" hidden="1">Sheet1!$D$58</definedName>
+    <definedName name="_xlchart.v2.15" hidden="1">Sheet1!$D$59:$D$65</definedName>
+    <definedName name="_xlchart.v2.8" hidden="1">Sheet1!$A$58</definedName>
+    <definedName name="_xlchart.v2.9" hidden="1">Sheet1!$A$59:$A$65</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="27">
   <si>
     <t>CPU</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,11 +84,68 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FGMRES+ILU0 GPU</t>
+    <t>GPU (ILU1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FGMRES+ILU1 GPU</t>
+    <t>GPU (ILU0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网格1</t>
+  </si>
+  <si>
+    <t>网格2</t>
+  </si>
+  <si>
+    <t>网格3</t>
+  </si>
+  <si>
+    <t>网格4</t>
+  </si>
+  <si>
+    <t>网格编号</t>
+  </si>
+  <si>
+    <t>行数</t>
+  </si>
+  <si>
+    <t>非零块数</t>
+  </si>
+  <si>
+    <t>内存占用（MB）</t>
+  </si>
+  <si>
+    <t>元素个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ILU0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>has</t>
+  </si>
+  <si>
+    <t>rows</t>
+  </si>
+  <si>
+    <t>ILU1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜色层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ILU(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ILU(1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -86,7 +153,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -102,6 +169,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -111,12 +193,41 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -125,12 +236,36 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -170,10 +305,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.2017912000395822"/>
-          <c:y val="0.20955679180635892"/>
-          <c:w val="0.55016581112434426"/>
-          <c:h val="0.53620352996327247"/>
+          <c:x val="0.15304026420501718"/>
+          <c:y val="0.151510215952883"/>
+          <c:w val="0.81746037847245712"/>
+          <c:h val="0.6681226953080367"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -254,7 +389,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FGMRES+ILU0 GPU</c:v>
+                  <c:v>GPU (ILU0)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -319,7 +454,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FGMRES+ILU1 GPU</c:v>
+                  <c:v>GPU (ILU1)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -473,7 +608,15 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t>残差降低</a:t>
+                  <a:t>残差</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>/</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>初始残差</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -482,8 +625,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.10418246491056035"/>
-              <c:y val="0.35548741774038795"/>
+              <c:x val="2.3003394813070024E-2"/>
+              <c:y val="0.27584547786976354"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -569,8 +712,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.24901368780156527"/>
-          <c:y val="0.15111603254993264"/>
+          <c:x val="0.32337115941837369"/>
+          <c:y val="9.8909718197867952E-2"/>
           <c:w val="0.49436618308750546"/>
           <c:h val="8.9637150101258695E-2"/>
         </c:manualLayout>
@@ -650,7 +793,1688 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17104849991160992"/>
+          <c:y val="8.4285577560545541E-2"/>
+          <c:w val="0.8033224170929435"/>
+          <c:h val="0.77497951367955276"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ILU(0)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$G$27:$G$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$27:$H$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>175027</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>641297</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>641822</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>597738</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>508455</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>335869</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>206954</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-736B-764C-9F89-98FED4B867B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="654961119"/>
+        <c:axId val="654792319"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="654961119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>颜色层</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="654792319"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="654792319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>矩阵行数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.05032663963572E-2"/>
+              <c:y val="0.35643717563325961"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0_);[Red]\(0\)" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="654961119"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.75474657249057686"/>
+          <c:y val="0.18569803555143385"/>
+          <c:w val="0.16041964686395363"/>
+          <c:h val="0.1126612583509727"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17104849991160992"/>
+          <c:y val="8.4285577560545541E-2"/>
+          <c:w val="0.8033224170929435"/>
+          <c:h val="0.77497951367955276"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ILU(1)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$G$37:$G$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$37:$H$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>256138</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>226918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>227269</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>203697</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>204010</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>190900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>190952</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>184376</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>184406</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>179652</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>180166</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>172180</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>172296</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>151765</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>152214</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>115017</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>115206</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6833-644D-8811-E9C025E9B142}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="63"/>
+        <c:overlap val="-27"/>
+        <c:axId val="654961119"/>
+        <c:axId val="654792319"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="654961119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>颜色层</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="654792319"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="654792319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>矩阵行数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.05032663963572E-2"/>
+              <c:y val="0.35643717563325961"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0_);[Red]\(0\)" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="654961119"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.75474657249057686"/>
+          <c:y val="0.18569803555143385"/>
+          <c:w val="0.16041964686395363"/>
+          <c:h val="0.1126612583509727"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17182472378736793"/>
+          <c:y val="9.032625634164812E-2"/>
+          <c:w val="0.79779069044131812"/>
+          <c:h val="0.72873486717024272"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>网格1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$59:$A$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$59:$B$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5992</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18931</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18862</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17560</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15374</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10503</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6709</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6CF4-F04A-8464-0D68A901F964}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>网格2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$59:$A$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$59:$C$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>68685</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>220242</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>220224</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>195281</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>169410</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>119302</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>76094</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6CF4-F04A-8464-0D68A901F964}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>网格3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$59:$A$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$59:$D$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>175027</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>641297</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>641822</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>597738</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>508455</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>335869</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>206954</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6CF4-F04A-8464-0D68A901F964}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="655940095"/>
+        <c:axId val="623994815"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="655940095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t>颜色层</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="623994815"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="623994815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t>矩阵行数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="655940095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.62873211670290929"/>
+          <c:y val="0.12587841629211655"/>
+          <c:w val="0.32334257636400099"/>
+          <c:h val="7.8102945465150189E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1193,20 +3017,1529 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>323273</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>99642</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>73318</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>75196</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>237563</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>59628</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>624204</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>58336</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1226,6 +4559,116 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9237</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57728</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>808182</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>207432</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87D348E6-3B4E-424D-A9A9-1BCF5D918052}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>814457</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>41413</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>785141</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>204921</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88FA9E14-678A-9040-8774-8C20C7F8E1E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>497840</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>132080</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1D81E60-012E-AF42-954F-D32C802AD7B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1531,29 +4974,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4D7965-781C-E449-B2A2-EC7799605C89}">
-  <dimension ref="A2:F12"/>
+  <dimension ref="A2:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="163" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="200" zoomScaleNormal="257" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="2" spans="1:6">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="B3" s="1"/>
+      <c r="B3" s="8"/>
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -1651,7 +5094,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>0.39902974117647055</v>
@@ -1665,7 +5108,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <v>0.36735000392156869</v>
@@ -1675,6 +5118,908 @@
       </c>
       <c r="D12">
         <v>0.48284559999999993</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="17" thickBot="1"/>
+    <row r="19" spans="1:8" ht="32" thickTop="1" thickBot="1">
+      <c r="A19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="3">
+        <v>93931</v>
+      </c>
+      <c r="C20" s="3">
+        <v>482609</v>
+      </c>
+      <c r="D20">
+        <f>C20*16</f>
+        <v>7721744</v>
+      </c>
+      <c r="E20">
+        <f>D20*8/1024/1024</f>
+        <v>58.9122314453125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="5">
+        <v>1069238</v>
+      </c>
+      <c r="C21" s="5">
+        <v>5512816</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ref="D21:E23" si="2">C21*16</f>
+        <v>88205056</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ref="E21:E22" si="3">D21*8/1024/1024</f>
+        <v>672.951171875</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="5">
+        <v>3107162</v>
+      </c>
+      <c r="C22" s="5">
+        <v>17962870</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>287405920</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="3"/>
+        <v>2192.733154296875</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="17" thickBot="1">
+      <c r="A23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="17" thickTop="1"/>
+    <row r="26" spans="1:8">
+      <c r="A26" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27">
+        <v>175027</v>
+      </c>
+      <c r="E27" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>175027</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28">
+        <v>641297</v>
+      </c>
+      <c r="E28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>641297</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29">
+        <v>641822</v>
+      </c>
+      <c r="E29" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <v>641822</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30">
+        <v>597738</v>
+      </c>
+      <c r="E30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+      <c r="H30">
+        <v>597738</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31">
+        <v>508455</v>
+      </c>
+      <c r="E31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31">
+        <v>4</v>
+      </c>
+      <c r="H31">
+        <v>508455</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32">
+        <v>335869</v>
+      </c>
+      <c r="E32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32">
+        <v>5</v>
+      </c>
+      <c r="H32">
+        <v>335869</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33">
+        <v>206954</v>
+      </c>
+      <c r="E33" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33">
+        <v>6</v>
+      </c>
+      <c r="H33">
+        <v>206954</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36">
+        <v>256138</v>
+      </c>
+      <c r="E36" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37">
+        <v>226918</v>
+      </c>
+      <c r="E37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>256138</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38">
+        <v>227269</v>
+      </c>
+      <c r="E38" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>226918</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39">
+        <v>203697</v>
+      </c>
+      <c r="E39" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <v>227269</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40">
+        <v>204010</v>
+      </c>
+      <c r="E40" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40">
+        <v>3</v>
+      </c>
+      <c r="H40">
+        <v>203697</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41">
+        <v>190900</v>
+      </c>
+      <c r="E41" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+      <c r="H41">
+        <v>204010</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42">
+        <v>190952</v>
+      </c>
+      <c r="E42" t="s">
+        <v>22</v>
+      </c>
+      <c r="G42">
+        <v>5</v>
+      </c>
+      <c r="H42">
+        <v>190900</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43">
+        <v>184376</v>
+      </c>
+      <c r="E43" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43">
+        <v>6</v>
+      </c>
+      <c r="H43">
+        <v>190952</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44">
+        <v>8</v>
+      </c>
+      <c r="B44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44">
+        <v>184406</v>
+      </c>
+      <c r="E44" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44">
+        <v>7</v>
+      </c>
+      <c r="H44">
+        <v>184376</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45">
+        <v>9</v>
+      </c>
+      <c r="B45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45">
+        <v>179652</v>
+      </c>
+      <c r="E45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45">
+        <v>8</v>
+      </c>
+      <c r="H45">
+        <v>184406</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46">
+        <v>10</v>
+      </c>
+      <c r="B46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46">
+        <v>180166</v>
+      </c>
+      <c r="E46" t="s">
+        <v>22</v>
+      </c>
+      <c r="G46">
+        <v>9</v>
+      </c>
+      <c r="H46">
+        <v>179652</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47">
+        <v>11</v>
+      </c>
+      <c r="B47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47">
+        <v>172180</v>
+      </c>
+      <c r="E47" t="s">
+        <v>22</v>
+      </c>
+      <c r="G47">
+        <v>10</v>
+      </c>
+      <c r="H47">
+        <v>180166</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48">
+        <v>12</v>
+      </c>
+      <c r="B48" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48">
+        <v>172296</v>
+      </c>
+      <c r="E48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48">
+        <v>11</v>
+      </c>
+      <c r="H48">
+        <v>172180</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49">
+        <v>13</v>
+      </c>
+      <c r="B49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49">
+        <v>151765</v>
+      </c>
+      <c r="E49" t="s">
+        <v>22</v>
+      </c>
+      <c r="G49">
+        <v>12</v>
+      </c>
+      <c r="H49">
+        <v>172296</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50">
+        <v>14</v>
+      </c>
+      <c r="B50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50">
+        <v>152214</v>
+      </c>
+      <c r="E50" t="s">
+        <v>22</v>
+      </c>
+      <c r="G50">
+        <v>13</v>
+      </c>
+      <c r="H50">
+        <v>151765</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51">
+        <v>15</v>
+      </c>
+      <c r="B51" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51">
+        <v>115017</v>
+      </c>
+      <c r="E51" t="s">
+        <v>22</v>
+      </c>
+      <c r="G51">
+        <v>14</v>
+      </c>
+      <c r="H51">
+        <v>152214</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52">
+        <v>16</v>
+      </c>
+      <c r="B52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52">
+        <v>115206</v>
+      </c>
+      <c r="E52" t="s">
+        <v>22</v>
+      </c>
+      <c r="G52">
+        <v>15</v>
+      </c>
+      <c r="H52">
+        <v>115017</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="G53">
+        <v>16</v>
+      </c>
+      <c r="H53">
+        <v>115206</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
+        <v>24</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>5992</v>
+      </c>
+      <c r="C59">
+        <v>68685</v>
+      </c>
+      <c r="D59">
+        <v>175027</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60">
+        <v>18931</v>
+      </c>
+      <c r="C60">
+        <v>220242</v>
+      </c>
+      <c r="D60">
+        <v>641297</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61">
+        <v>2</v>
+      </c>
+      <c r="B61">
+        <v>18862</v>
+      </c>
+      <c r="C61">
+        <v>220224</v>
+      </c>
+      <c r="D61">
+        <v>641822</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62">
+        <v>3</v>
+      </c>
+      <c r="B62">
+        <v>17560</v>
+      </c>
+      <c r="C62">
+        <v>195281</v>
+      </c>
+      <c r="D62">
+        <v>597738</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63">
+        <v>4</v>
+      </c>
+      <c r="B63">
+        <v>15374</v>
+      </c>
+      <c r="C63">
+        <v>169410</v>
+      </c>
+      <c r="D63">
+        <v>508455</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64">
+        <v>5</v>
+      </c>
+      <c r="B64">
+        <v>10503</v>
+      </c>
+      <c r="C64">
+        <v>119302</v>
+      </c>
+      <c r="D64">
+        <v>335869</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>6</v>
+      </c>
+      <c r="B65">
+        <v>6709</v>
+      </c>
+      <c r="C65">
+        <v>76094</v>
+      </c>
+      <c r="D65">
+        <v>206954</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="B75">
+        <v>1.8869723529411762E-2</v>
+      </c>
+      <c r="C75">
+        <v>4.8056972549019599E-4</v>
+      </c>
+      <c r="D75">
+        <v>1.2550840784313722E-2</v>
+      </c>
+      <c r="E75">
+        <v>2.8909096078431375E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="B76">
+        <v>2.9211180392156866E-2</v>
+      </c>
+      <c r="C76">
+        <v>1.5238205882352942E-3</v>
+      </c>
+      <c r="D76">
+        <v>1.4880580392156863E-2</v>
+      </c>
+      <c r="E76">
+        <v>5.423486274509802E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="B77">
+        <v>0.12089437254901962</v>
+      </c>
+      <c r="C77">
+        <v>5.1116056862745094E-3</v>
+      </c>
+      <c r="D77">
+        <v>9.4718996078431386E-2</v>
+      </c>
+      <c r="E77">
+        <v>2.6992978431372557E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="B78">
+        <v>0.17584639215686279</v>
+      </c>
+      <c r="C78">
+        <v>1.3979041176470589E-2</v>
+      </c>
+      <c r="D78">
+        <v>0.11375978627450983</v>
+      </c>
+      <c r="E78">
+        <v>4.4461405882352936E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="B79">
+        <v>0.30505405882352937</v>
+      </c>
+      <c r="C79">
+        <v>1.5091523529411757E-2</v>
+      </c>
+      <c r="D79">
+        <v>0.24040439215686282</v>
+      </c>
+      <c r="E79">
+        <v>7.875340392156864E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="B80">
+        <v>0.44795023529411765</v>
+      </c>
+      <c r="C80">
+        <v>3.9303435294117638E-2</v>
+      </c>
+      <c r="D80">
+        <v>0.29120070588235292</v>
+      </c>
+      <c r="E80">
+        <v>0.13012901960784312</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5">
+      <c r="B83">
+        <v>0.40756866666666658</v>
+      </c>
+      <c r="C83">
+        <v>6.2504274509803906E-2</v>
+      </c>
+      <c r="D83">
+        <v>0.34501288235294109</v>
+      </c>
+      <c r="E83">
+        <v>2.5303274509803918E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5">
+      <c r="B84">
+        <v>4.9424472549019596</v>
+      </c>
+      <c r="C84">
+        <v>0.70926335294117626</v>
+      </c>
+      <c r="D84">
+        <v>4.2331260784313738</v>
+      </c>
+      <c r="E84">
+        <v>0.31292098039215682</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5">
+      <c r="B85">
+        <v>14.269792000000001</v>
+      </c>
+      <c r="C85">
+        <v>2.0122236000000004</v>
+      </c>
+      <c r="D85">
+        <v>12.257506000000001</v>
+      </c>
+      <c r="E85">
+        <v>0.84779874000000011</v>
       </c>
     </row>
   </sheetData>
@@ -1685,6 +6030,34 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266CDA95-DF76-D54E-8B6D-9940125746EB}">
+  <dimension ref="B1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="2:4">
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/xjh/pictures/第四章/pictures.xlsx
+++ b/xjh/pictures/第四章/pictures.xlsx
@@ -8,31 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xjh/thesis/xjh/pictures/第四章/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F26FFF0-C21F-DE40-A8BB-55AB7FC458EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CFF437-053E-9145-AF2A-957DDC8E0C88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{3023509B-8782-0248-A960-7BF2A7E53CDE}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{3023509B-8782-0248-A960-7BF2A7E53CDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$58</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$59:$A$65</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$58</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$59:$B$65</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$58</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$C$59:$C$65</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$D$58</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$D$59:$D$65</definedName>
-    <definedName name="_xlchart.v2.10" hidden="1">Sheet1!$B$58</definedName>
-    <definedName name="_xlchart.v2.11" hidden="1">Sheet1!$B$59:$B$65</definedName>
-    <definedName name="_xlchart.v2.12" hidden="1">Sheet1!$C$58</definedName>
-    <definedName name="_xlchart.v2.13" hidden="1">Sheet1!$C$59:$C$65</definedName>
-    <definedName name="_xlchart.v2.14" hidden="1">Sheet1!$D$58</definedName>
-    <definedName name="_xlchart.v2.15" hidden="1">Sheet1!$D$59:$D$65</definedName>
-    <definedName name="_xlchart.v2.8" hidden="1">Sheet1!$A$58</definedName>
-    <definedName name="_xlchart.v2.9" hidden="1">Sheet1!$A$59:$A$65</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$98:$B$100</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$98:$C$100</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="37">
   <si>
     <t>CPU</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,12 +134,49 @@
     <t>ILU(1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>CPU计算耗时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU计算耗时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总耗时</t>
+  </si>
+  <si>
+    <t>ILU分解耗时</t>
+  </si>
+  <si>
+    <t>预处理</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>FGMRES</t>
+  </si>
+  <si>
+    <t>FGMRES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU设置</t>
+  </si>
+  <si>
+    <t>GPU设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -183,6 +206,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -236,7 +267,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -261,11 +292,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -273,6 +310,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFA5A5A5"/>
+      <color rgb="FFED7D31"/>
+      <color rgb="FFA5A4A6"/>
+      <color rgb="FFA5A5A4"/>
+      <color rgb="FFFEC003"/>
+      <color rgb="FF4471C5"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2354,6 +2401,1700 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.1899908065770548E-2"/>
+          <c:y val="4.8380904969135365E-2"/>
+          <c:w val="0.97431951822395779"/>
+          <c:h val="0.91558587442479111"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:ofPieChart>
+        <c:ofPieType val="bar"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-085C-9449-A490-79C34FE151AB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-085C-9449-A490-79C34FE151AB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-085C-9449-A490-79C34FE151AB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-085C-9449-A490-79C34FE151AB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="zh-CN"/>
+                      <a:t>ILU</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="zh-CN" altLang="en-US"/>
+                      <a:t>分解</a:t>
+                    </a:r>
+                    <a:fld id="{1FAD01C5-5CDB-5E4F-B998-E9A83B36237E}" type="VALUE">
+                      <a:rPr lang="en-US" altLang="zh-CN"/>
+                      <a:pPr/>
+                      <a:t>[值]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-085C-9449-A490-79C34FE151AB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.5983849524093326E-2"/>
+                  <c:y val="-9.2975967634113948E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="zh-CN" altLang="en-US"/>
+                      <a:t>预处理</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:fld id="{DC9D1712-DE3F-BB4F-B3EA-FC226A8BDD58}" type="VALUE">
+                      <a:rPr lang="en-US" altLang="zh-CN"/>
+                      <a:pPr/>
+                      <a:t>[值]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.21704507815494595"/>
+                      <c:h val="0.17456237923304893"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-085C-9449-A490-79C34FE151AB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.10712895059712076"/>
+                  <c:y val="-5.8108562512042003E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="zh-CN" altLang="en-US"/>
+                      <a:t>其他</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:fld id="{C75A79E1-BECC-B749-96DF-2E7BA508DA14}" type="VALUE">
+                      <a:rPr lang="en-US" altLang="zh-CN"/>
+                      <a:pPr/>
+                      <a:t>[值]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-085C-9449-A490-79C34FE151AB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.29628375748135483"/>
+                  <c:y val="-2.9671779277249118E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="zh-CN"/>
+                      <a:t>FGMRES</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="zh-CN" altLang="en-US"/>
+                      <a:t>迭代</a:t>
+                    </a:r>
+                    <a:fld id="{41543CE0-5776-4F45-909E-7B99F72F238A}" type="VALUE">
+                      <a:rPr lang="en-US" altLang="zh-CN"/>
+                      <a:pPr/>
+                      <a:t>[值]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.25924828779618542"/>
+                      <c:h val="0.18304643627966183"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-085C-9449-A490-79C34FE151AB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="SimHei" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+                    <a:ea typeface="SimHei" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$98:$B$100</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ILU分解耗时</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>预处理</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>其他</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$98:$C$100</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.14101281924782089</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9412130183817684E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79957067769453127</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-085C-9449-A490-79C34FE151AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:splitType val="pos"/>
+        <c:splitPos val="2"/>
+        <c:secondPieSize val="75"/>
+        <c:serLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:serLines>
+      </c:ofPieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.3781162505195162E-2"/>
+          <c:y val="4.8380904969135365E-2"/>
+          <c:w val="0.97431951822395779"/>
+          <c:h val="0.91558587442479111"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:ofPieChart>
+        <c:ofPieType val="bar"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-93E7-8C47-8555-EA31C533EA0D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-93E7-8C47-8555-EA31C533EA0D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ED7D31"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-93E7-8C47-8555-EA31C533EA0D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="A5A5A4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-93E7-8C47-8555-EA31C533EA0D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FEC003"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-93E7-8C47-8555-EA31C533EA0D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.5513526068051876E-4"/>
+                  <c:y val="-1.8540286459322326E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="zh-CN"/>
+                      <a:t>ILU</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="zh-CN" altLang="en-US"/>
+                      <a:t>分解</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:fld id="{695B9820-6FFB-DC4B-AF8E-F66A8E353158}" type="VALUE">
+                      <a:rPr lang="en-US" altLang="zh-CN"/>
+                      <a:pPr/>
+                      <a:t>[值]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-93E7-8C47-8555-EA31C533EA0D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="zh-CN"/>
+                      <a:t>GPU</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="zh-CN" altLang="en-US"/>
+                      <a:t>设置</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:fld id="{7C890512-61BA-EA44-955B-AF58F4675441}" type="VALUE">
+                      <a:rPr lang="en-US" altLang="zh-CN"/>
+                      <a:pPr/>
+                      <a:t>[值]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-93E7-8C47-8555-EA31C533EA0D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.13682131078384194"/>
+                  <c:y val="-1.162207159862802E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="zh-CN" altLang="en-US"/>
+                      <a:t>预处理</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:fld id="{05575051-E784-A143-B6E4-1702870BE5BA}" type="VALUE">
+                      <a:rPr lang="en-US" altLang="zh-CN"/>
+                      <a:pPr/>
+                      <a:t>[值]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-93E7-8C47-8555-EA31C533EA0D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.0056465811907198E-2"/>
+                  <c:y val="2.283742176470239E-7"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="zh-CN" altLang="en-US"/>
+                      <a:t>其他</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:fld id="{41543CE0-5776-4F45-909E-7B99F72F238A}" type="VALUE">
+                      <a:rPr lang="en-US" altLang="zh-CN"/>
+                      <a:pPr/>
+                      <a:t>[值]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.25924828779618542"/>
+                      <c:h val="0.18304643627966183"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-93E7-8C47-8555-EA31C533EA0D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.23437837656158061"/>
+                  <c:y val="-8.3742429116119756E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="zh-CN"/>
+                      <a:t>FGMRES</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="zh-CN" altLang="en-US"/>
+                      <a:t>迭代</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:fld id="{1652FE3C-6B69-3F49-AAB1-3686A5A79496}" type="VALUE">
+                      <a:rPr lang="en-US" altLang="zh-CN"/>
+                      <a:pPr/>
+                      <a:t>[值]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-93E7-8C47-8555-EA31C533EA0D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="SimHei" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+                    <a:ea typeface="SimHei" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$111:$B$114</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>ILU分解耗时</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GPU设置</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>预处理</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>其他</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$111:$C$114</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.9471636560463036E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16245692807774284</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25816211167201036</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52990932368978383</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-93E7-8C47-8555-EA31C533EA0D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$111:$B$114</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>ILU分解耗时</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GPU设置</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>预处理</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>其他</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$111:$D$114</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="4"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-93E7-8C47-8555-EA31C533EA0D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:splitType val="pos"/>
+        <c:splitPos val="2"/>
+        <c:secondPieSize val="75"/>
+        <c:serLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:serLines>
+      </c:ofPieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.3781162505195162E-2"/>
+          <c:y val="4.8380904969135365E-2"/>
+          <c:w val="0.97431951822395779"/>
+          <c:h val="0.91558587442479111"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:ofPieChart>
+        <c:ofPieType val="bar"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-9788-8B4D-B63E-D28BF3EF708C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-9788-8B4D-B63E-D28BF3EF708C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ED7D31"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-9788-8B4D-B63E-D28BF3EF708C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="A5A5A5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-9788-8B4D-B63E-D28BF3EF708C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FEC003"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-9788-8B4D-B63E-D28BF3EF708C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="zh-CN"/>
+                      <a:t>ILU</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="zh-CN" altLang="en-US"/>
+                      <a:t>分解</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:fld id="{91BDC8EC-3C18-404B-8B4F-E9F7739568AC}" type="VALUE">
+                      <a:rPr lang="en-US" altLang="zh-CN"/>
+                      <a:pPr/>
+                      <a:t>[值]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-9788-8B4D-B63E-D28BF3EF708C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.13816405500962001"/>
+                  <c:y val="8.2685468066735879E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="zh-CN"/>
+                      <a:t>GPU</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="zh-CN" altLang="en-US"/>
+                      <a:t>设置</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:fld id="{A01ABBCC-5D6B-6F4A-A125-0103984447CB}" type="VALUE">
+                      <a:rPr lang="en-US" altLang="zh-CN"/>
+                      <a:pPr/>
+                      <a:t>[值]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-9788-8B4D-B63E-D28BF3EF708C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.13916851272112366"/>
+                  <c:y val="-2.663343305683083E-17"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="SimHei" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+                        <a:ea typeface="SimHei" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1050" b="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="SimHei" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+                        <a:ea typeface="SimHei" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+                      </a:rPr>
+                      <a:t>预处理</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1050" b="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="SimHei" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+                        <a:ea typeface="SimHei" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{A4DCBAC3-0E71-BD45-AC91-8C4270D59C41}" type="VALUE">
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1050" b="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="SimHei" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+                        <a:ea typeface="SimHei" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+                      </a:rPr>
+                      <a:pPr>
+                        <a:defRPr sz="1050" b="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:latin typeface="SimHei" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+                          <a:ea typeface="SimHei" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:t>[值]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="SimHei" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+                      <a:ea typeface="SimHei" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-9788-8B4D-B63E-D28BF3EF708C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.13371092398696194"/>
+                  <c:y val="-1.0653373222732332E-16"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="zh-CN" altLang="en-US"/>
+                      <a:t>其他</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:fld id="{2EE3D98B-8F51-9A48-A5C7-AC2A5E048AF0}" type="VALUE">
+                      <a:rPr lang="en-US" altLang="zh-CN"/>
+                      <a:pPr/>
+                      <a:t>[值]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-9788-8B4D-B63E-D28BF3EF708C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.19871012015593931"/>
+                  <c:y val="2.4938833889965317E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="zh-CN"/>
+                      <a:t>FGMRES</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="zh-CN" altLang="en-US"/>
+                      <a:t>迭代</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:fld id="{1652FE3C-6B69-3F49-AAB1-3686A5A79496}" type="VALUE">
+                      <a:rPr lang="en-US" altLang="zh-CN"/>
+                      <a:pPr/>
+                      <a:t>[值]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-9788-8B4D-B63E-D28BF3EF708C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="SimHei" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+                    <a:ea typeface="SimHei" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$111:$K$114</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>ILU分解耗时</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GPU设置</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>预处理</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>其他</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$111:$L$114</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.7740628751565602E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26218558416546811</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.290498830796243</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35957495628672337</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-9788-8B4D-B63E-D28BF3EF708C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:splitType val="pos"/>
+        <c:splitPos val="2"/>
+        <c:secondPieSize val="75"/>
+        <c:serLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:serLines>
+      </c:ofPieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2514,6 +4255,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4494,6 +6355,1584 @@
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="333">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1440" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="333">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1440" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="333">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1440" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4669,6 +8108,120 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>682467</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>185155</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>578846</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>124195</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="图表 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C7CFB20-4336-A34A-B1D8-60FA71673249}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142241</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>177801</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>183991</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="图表 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EC98674-C9F8-934D-BFC7-4299C37CAF45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>526570</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>153511</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="图表 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56695967-46BB-9242-B37B-C0632B70C227}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4974,29 +8527,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4D7965-781C-E449-B2A2-EC7799605C89}">
-  <dimension ref="A2:H85"/>
+  <dimension ref="A2:M114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="200" zoomScaleNormal="257" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="157" zoomScaleNormal="257" workbookViewId="0">
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="2" spans="1:6">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="8"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="B3" s="8"/>
+      <c r="B3" s="9"/>
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -5212,7 +8765,7 @@
     </row>
     <row r="24" spans="1:8" ht="17" thickTop="1"/>
     <row r="26" spans="1:8">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="8" t="s">
         <v>19</v>
       </c>
       <c r="G26" t="s">
@@ -5384,7 +8937,7 @@
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5896,6 +9449,14 @@
         <v>206954</v>
       </c>
     </row>
+    <row r="74" spans="1:5">
+      <c r="B74" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+    </row>
     <row r="75" spans="1:5">
       <c r="B75">
         <v>1.8869723529411762E-2</v>
@@ -5980,6 +9541,14 @@
         <v>0.13012901960784312</v>
       </c>
     </row>
+    <row r="82" spans="2:5">
+      <c r="B82" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+    </row>
     <row r="83" spans="2:5">
       <c r="B83">
         <v>0.40756866666666658</v>
@@ -6022,11 +9591,267 @@
         <v>0.84779874000000011</v>
       </c>
     </row>
+    <row r="90" spans="2:5">
+      <c r="B90" t="s">
+        <v>29</v>
+      </c>
+      <c r="C90">
+        <v>14.269792000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5">
+      <c r="B91" t="s">
+        <v>30</v>
+      </c>
+      <c r="C91">
+        <v>2.0122236000000004</v>
+      </c>
+      <c r="D91" s="10">
+        <f>C91/$C$90</f>
+        <v>0.14101281924782089</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5">
+      <c r="B92" t="s">
+        <v>34</v>
+      </c>
+      <c r="C92">
+        <v>12.257506000000001</v>
+      </c>
+      <c r="D92" s="10">
+        <f t="shared" ref="D92:D94" si="4">C92/$C$90</f>
+        <v>0.85898280787834891</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5">
+      <c r="B93" t="s">
+        <v>31</v>
+      </c>
+      <c r="C93">
+        <v>0.84779874000000011</v>
+      </c>
+      <c r="D93" s="10">
+        <f t="shared" si="4"/>
+        <v>5.9412130183817684E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5">
+      <c r="B94" t="s">
+        <v>32</v>
+      </c>
+      <c r="C94">
+        <f>C92-C93</f>
+        <v>11.409707260000001</v>
+      </c>
+      <c r="D94" s="10">
+        <f t="shared" si="4"/>
+        <v>0.79957067769453127</v>
+      </c>
+    </row>
+    <row r="97" spans="2:13">
+      <c r="B97" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="98" spans="2:13">
+      <c r="B98" t="s">
+        <v>30</v>
+      </c>
+      <c r="C98" s="10">
+        <v>0.14101281924782089</v>
+      </c>
+    </row>
+    <row r="99" spans="2:13">
+      <c r="B99" t="s">
+        <v>31</v>
+      </c>
+      <c r="C99" s="10">
+        <v>5.9412130183817684E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="2:13">
+      <c r="B100" t="s">
+        <v>32</v>
+      </c>
+      <c r="C100" s="10">
+        <v>0.79957067769453127</v>
+      </c>
+    </row>
+    <row r="103" spans="2:13">
+      <c r="B103" t="s">
+        <v>29</v>
+      </c>
+      <c r="C103">
+        <v>0.30505405882352937</v>
+      </c>
+      <c r="K103" t="s">
+        <v>29</v>
+      </c>
+      <c r="L103">
+        <v>0.44795023529411765</v>
+      </c>
+    </row>
+    <row r="104" spans="2:13">
+      <c r="B104" t="s">
+        <v>30</v>
+      </c>
+      <c r="C104">
+        <v>1.5091523529411757E-2</v>
+      </c>
+      <c r="K104" t="s">
+        <v>30</v>
+      </c>
+      <c r="L104">
+        <v>3.9303435294117638E-2</v>
+      </c>
+      <c r="M104" s="10">
+        <f>L104/$L$103</f>
+        <v>8.7740628751565602E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="2:13">
+      <c r="B105" t="s">
+        <v>36</v>
+      </c>
+      <c r="C105">
+        <f>C103-C104-C106</f>
+        <v>4.9558145294117645E-2</v>
+      </c>
+      <c r="K105" t="s">
+        <v>36</v>
+      </c>
+      <c r="L105">
+        <f>L103-L104-L106</f>
+        <v>0.11744609411764712</v>
+      </c>
+      <c r="M105" s="10">
+        <f t="shared" ref="M105:M108" si="5">L105/$L$103</f>
+        <v>0.26218558416546811</v>
+      </c>
+    </row>
+    <row r="106" spans="2:13">
+      <c r="B106" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C106" s="11">
+        <v>0.24040439</v>
+      </c>
+      <c r="K106" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L106">
+        <v>0.29120070588235292</v>
+      </c>
+      <c r="M106" s="10">
+        <f t="shared" si="5"/>
+        <v>0.65007378708296637</v>
+      </c>
+    </row>
+    <row r="107" spans="2:13">
+      <c r="B107" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C107" s="11">
+        <v>7.8753400000000001E-2</v>
+      </c>
+      <c r="K107" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L107">
+        <v>0.13012901960784312</v>
+      </c>
+      <c r="M107" s="10">
+        <f t="shared" si="5"/>
+        <v>0.290498830796243</v>
+      </c>
+    </row>
+    <row r="108" spans="2:13">
+      <c r="B108" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C108" s="11">
+        <f>C106-C107</f>
+        <v>0.16165098999999999</v>
+      </c>
+      <c r="K108" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L108">
+        <f>L106-L107</f>
+        <v>0.1610716862745098</v>
+      </c>
+      <c r="M108" s="10">
+        <f t="shared" si="5"/>
+        <v>0.35957495628672337</v>
+      </c>
+    </row>
+    <row r="111" spans="2:13">
+      <c r="B111" t="s">
+        <v>30</v>
+      </c>
+      <c r="C111" s="10">
+        <v>4.9471636560463036E-2</v>
+      </c>
+      <c r="D111" s="10"/>
+      <c r="K111" t="s">
+        <v>30</v>
+      </c>
+      <c r="L111" s="10">
+        <v>8.7740628751565602E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="2:13">
+      <c r="B112" t="s">
+        <v>35</v>
+      </c>
+      <c r="C112" s="10">
+        <v>0.16245692807774284</v>
+      </c>
+      <c r="D112" s="10"/>
+      <c r="K112" t="s">
+        <v>36</v>
+      </c>
+      <c r="L112" s="10">
+        <v>0.26218558416546811</v>
+      </c>
+    </row>
+    <row r="113" spans="2:12">
+      <c r="B113" t="s">
+        <v>31</v>
+      </c>
+      <c r="C113" s="10">
+        <v>0.25816211167201036</v>
+      </c>
+      <c r="D113" s="10"/>
+      <c r="K113" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L113" s="10">
+        <v>0.290498830796243</v>
+      </c>
+    </row>
+    <row r="114" spans="2:12">
+      <c r="B114" t="s">
+        <v>32</v>
+      </c>
+      <c r="C114" s="10">
+        <v>0.52990932368978383</v>
+      </c>
+      <c r="D114" s="10"/>
+      <c r="K114" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L114" s="10">
+        <v>0.35957495628672337</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B74:E74"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xjh/pictures/第四章/pictures.xlsx
+++ b/xjh/pictures/第四章/pictures.xlsx
@@ -8,18 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xjh/thesis/xjh/pictures/第四章/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CFF437-053E-9145-AF2A-957DDC8E0C88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2B656B-C9E0-2145-87DA-62CAEC21ED7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{3023509B-8782-0248-A960-7BF2A7E53CDE}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{3023509B-8782-0248-A960-7BF2A7E53CDE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="turb_flat_plate" sheetId="1" r:id="rId1"/>
+    <sheet name="Onera M6 &amp;&amp; F4" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$98:$B$100</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$98:$C$100</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="49">
   <si>
     <t>CPU</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,6 +164,54 @@
     <t>GPU设置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>F4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Onera M6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总耗时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ILU分解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FGMRES迭代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>残差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU ILU(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU ILU(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU(ILU0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU(ILU1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -271,9 +315,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -304,6 +345,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -312,8 +356,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFA4A5A6"/>
+      <color rgb="FFA4A6A5"/>
+      <color rgb="FFED7D31"/>
       <color rgb="FFA5A5A5"/>
-      <color rgb="FFED7D31"/>
       <color rgb="FFA5A4A6"/>
       <color rgb="FFA5A5A4"/>
       <color rgb="FFFEC003"/>
@@ -367,7 +413,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$10</c:f>
+              <c:f>turb_flat_plate!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -388,7 +434,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$9:$D$9</c:f>
+              <c:f>turb_flat_plate!$B$9:$D$9</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -405,7 +451,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$10:$D$10</c:f>
+              <c:f>turb_flat_plate!$B$10:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -432,7 +478,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$11</c:f>
+              <c:f>turb_flat_plate!$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -453,7 +499,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$9:$D$9</c:f>
+              <c:f>turb_flat_plate!$B$9:$D$9</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -470,7 +516,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$11:$D$11</c:f>
+              <c:f>turb_flat_plate!$B$11:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -497,7 +543,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$12</c:f>
+              <c:f>turb_flat_plate!$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -518,7 +564,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$9:$D$9</c:f>
+              <c:f>turb_flat_plate!$B$9:$D$9</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -535,7 +581,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$12:$D$12</c:f>
+              <c:f>turb_flat_plate!$B$12:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -840,6 +886,1374 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.3781162505195162E-2"/>
+          <c:y val="4.8380904969135365E-2"/>
+          <c:w val="0.97431951822395779"/>
+          <c:h val="0.91558587442479111"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:ofPieChart>
+        <c:ofPieType val="bar"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-CE4D-F043-8D6A-A1B28119CC76}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-CE4D-F043-8D6A-A1B28119CC76}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ED7D31"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-CE4D-F043-8D6A-A1B28119CC76}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="A4A5A6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-CE4D-F043-8D6A-A1B28119CC76}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FEC003"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-CE4D-F043-8D6A-A1B28119CC76}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.15361312259701285"/>
+                  <c:y val="-0.23584681480872408"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="zh-CN"/>
+                      <a:t>ILU</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="zh-CN" altLang="en-US"/>
+                      <a:t>分解</a:t>
+                    </a:r>
+                    <a:fld id="{5A5EF246-7296-8E43-A2F6-03A2F5F1B788}" type="VALUE">
+                      <a:rPr lang="en-US" altLang="zh-CN"/>
+                      <a:pPr/>
+                      <a:t>[值]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-CE4D-F043-8D6A-A1B28119CC76}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.14163256998517837"/>
+                  <c:y val="0.19579830205356963"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="zh-CN"/>
+                      <a:t>GPU</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="zh-CN" altLang="en-US"/>
+                      <a:t>设置</a:t>
+                    </a:r>
+                    <a:fld id="{D38D4027-9DB3-9649-B689-33AF8302B425}" type="VALUE">
+                      <a:rPr lang="en-US" altLang="zh-CN"/>
+                      <a:pPr/>
+                      <a:t>[值]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-CE4D-F043-8D6A-A1B28119CC76}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.5089291963784804E-2"/>
+                  <c:y val="-2.6106440273809327E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="zh-CN" altLang="en-US"/>
+                      <a:t>预处理</a:t>
+                    </a:r>
+                    <a:fld id="{E7192E31-1284-3740-8036-D75595C6BAF8}" type="VALUE">
+                      <a:rPr lang="en-US" altLang="zh-CN"/>
+                      <a:pPr/>
+                      <a:t>[值]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-CE4D-F043-8D6A-A1B28119CC76}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.4583343054776134E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="zh-CN" altLang="en-US"/>
+                      <a:t>其他</a:t>
+                    </a:r>
+                    <a:fld id="{974FFC43-B25E-5F4D-BAF1-556C9550D936}" type="VALUE">
+                      <a:rPr lang="en-US" altLang="zh-CN"/>
+                      <a:pPr/>
+                      <a:t>[值]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-CE4D-F043-8D6A-A1B28119CC76}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.28090804824946491"/>
+                  <c:y val="7.9540362201163482E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="zh-CN"/>
+                      <a:t>FGMRES</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="zh-CN" altLang="en-US"/>
+                      <a:t>迭代</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:fld id="{1652FE3C-6B69-3F49-AAB1-3686A5A79496}" type="VALUE">
+                      <a:rPr lang="en-US" altLang="zh-CN"/>
+                      <a:pPr/>
+                      <a:t>[值]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.25061552082578642"/>
+                      <c:h val="0.22939749624848399"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-CE4D-F043-8D6A-A1B28119CC76}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="SimHei" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+                    <a:ea typeface="SimHei" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Onera M6 &amp;&amp; F4'!$H$32:$H$35</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>ILU分解</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GPU设置</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>预处理</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>其他</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Onera M6 &amp;&amp; F4'!$I$32:$I$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.35717046746208658</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22583874086748496</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28782447995016119</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12916631172026699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-CE4D-F043-8D6A-A1B28119CC76}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="34"/>
+        <c:splitType val="pos"/>
+        <c:splitPos val="2"/>
+        <c:secondPieSize val="60"/>
+        <c:serLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:serLines>
+      </c:ofPieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Onera M6 &amp;&amp; F4'!$E$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Onera M6 &amp;&amp; F4'!$E$44:$E$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CCD3-414E-BDF4-052E99BA69D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Onera M6 &amp;&amp; F4'!$F$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU(ILU0)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Onera M6 &amp;&amp; F4'!$F$44:$F$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CCD3-414E-BDF4-052E99BA69D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Onera M6 &amp;&amp; F4'!$G$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU(ILU1)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Onera M6 &amp;&amp; F4'!$G$44:$G$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CCD3-414E-BDF4-052E99BA69D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="302114528"/>
+        <c:axId val="302116160"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="302114528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="302116160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="302116160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="302114528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.36144116360454942"/>
+          <c:y val="0.13483741615631376"/>
+          <c:w val="0.54378412073490812"/>
+          <c:h val="7.8125546806649182E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -876,7 +2290,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$26</c:f>
+              <c:f>turb_flat_plate!$H$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -897,7 +2311,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$G$27:$G$33</c:f>
+              <c:f>turb_flat_plate!$G$27:$G$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -927,7 +2341,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$27:$H$33</c:f>
+              <c:f>turb_flat_plate!$H$27:$H$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1309,7 +2723,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$36</c:f>
+              <c:f>turb_flat_plate!$H$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1330,7 +2744,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$G$37:$G$53</c:f>
+              <c:f>turb_flat_plate!$G$37:$G$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -1390,7 +2804,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$37:$H$53</c:f>
+              <c:f>turb_flat_plate!$H$37:$H$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -1802,7 +3216,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$58</c:f>
+              <c:f>turb_flat_plate!$B$58</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1823,7 +3237,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$59:$A$65</c:f>
+              <c:f>turb_flat_plate!$A$59:$A$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1853,7 +3267,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$59:$B$65</c:f>
+              <c:f>turb_flat_plate!$B$59:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1892,7 +3306,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$58</c:f>
+              <c:f>turb_flat_plate!$C$58</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1913,7 +3327,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$59:$A$65</c:f>
+              <c:f>turb_flat_plate!$A$59:$A$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1943,7 +3357,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$59:$C$65</c:f>
+              <c:f>turb_flat_plate!$C$59:$C$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1982,7 +3396,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$58</c:f>
+              <c:f>turb_flat_plate!$D$58</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2003,7 +3417,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$59:$A$65</c:f>
+              <c:f>turb_flat_plate!$A$59:$A$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2033,7 +3447,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$59:$D$65</c:f>
+              <c:f>turb_flat_plate!$D$59:$D$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2422,10 +3836,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="1.1899908065770548E-2"/>
-          <c:y val="4.8380904969135365E-2"/>
-          <c:w val="0.97431951822395779"/>
-          <c:h val="0.91558587442479111"/>
+          <c:x val="3.1648956222896237E-4"/>
+          <c:y val="2.7107850643890909E-2"/>
+          <c:w val="0.99847410075616982"/>
+          <c:h val="0.93685869402355149"/>
         </c:manualLayout>
       </c:layout>
       <c:ofPieChart>
@@ -2560,8 +3974,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.5983849524093326E-2"/>
-                  <c:y val="-9.2975967634113948E-2"/>
+                  <c:x val="-2.5095098880946558E-2"/>
+                  <c:y val="-9.8217974790862889E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2611,8 +4025,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.10712895059712076"/>
-                  <c:y val="-5.8108562512042003E-3"/>
+                  <c:x val="-6.465659818412213E-2"/>
+                  <c:y val="-5.8108889570408287E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2743,7 +4157,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$98:$B$100</c:f>
+              <c:f>turb_flat_plate!$B$98:$B$100</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2760,7 +4174,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$98:$C$100</c:f>
+              <c:f>turb_flat_plate!$C$98:$C$100</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2792,10 +4206,10 @@
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
+        <c:gapWidth val="34"/>
         <c:splitType val="pos"/>
         <c:splitPos val="2"/>
-        <c:secondPieSize val="75"/>
+        <c:secondPieSize val="60"/>
         <c:serLines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2831,9 +4245,7 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:noFill/>
       <a:round/>
@@ -2996,8 +4408,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="8.5513526068051876E-4"/>
-                  <c:y val="-1.8540286459322326E-2"/>
+                  <c:x val="8.5514484300573538E-4"/>
+                  <c:y val="0.1333476024749124"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3088,8 +4500,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.13682131078384194"/>
-                  <c:y val="-1.162207159862802E-2"/>
+                  <c:x val="-6.371338007643472E-2"/>
+                  <c:y val="-6.2535113383731739E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3133,8 +4545,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.0056465811907198E-2"/>
-                  <c:y val="2.283742176470239E-7"/>
+                  <c:x val="-1.7730747859324717E-2"/>
+                  <c:y val="2.1136724593974089E-7"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3267,7 +4679,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$111:$B$114</c:f>
+              <c:f>turb_flat_plate!$B$111:$B$114</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -3287,7 +4699,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$111:$C$114</c:f>
+              <c:f>turb_flat_plate!$C$111:$C$114</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3329,6 +4741,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-FF2A-AD4C-B532-CE9D702C5553}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3344,6 +4761,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-FF2A-AD4C-B532-CE9D702C5553}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -3359,6 +4781,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-FF2A-AD4C-B532-CE9D702C5553}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -3374,6 +4801,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-FF2A-AD4C-B532-CE9D702C5553}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -3389,13 +4821,18 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-FF2A-AD4C-B532-CE9D702C5553}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$111:$B$114</c:f>
+              <c:f>turb_flat_plate!$B$111:$B$114</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -3415,7 +4852,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$111:$D$114</c:f>
+              <c:f>turb_flat_plate!$D$111:$D$114</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3436,12 +4873,12 @@
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="0"/>
+          <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
+        <c:gapWidth val="34"/>
         <c:splitType val="pos"/>
         <c:splitPos val="2"/>
-        <c:secondPieSize val="75"/>
+        <c:secondPieSize val="60"/>
         <c:serLines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -3477,9 +4914,7 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:noFill/>
       <a:round/>
@@ -3732,27 +5167,15 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.13916851272112366"/>
-                  <c:y val="-2.663343305683083E-17"/>
+                  <c:x val="-7.3763762562920637E-2"/>
+                  <c:y val="0"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
                 <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                    <a:spAutoFit/>
-                  </a:bodyPr>
+                  <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:latin typeface="SimHei" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
-                        <a:ea typeface="SimHei" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:pPr>
                     <a:r>
                       <a:rPr lang="zh-CN" altLang="en-US" sz="1050" b="1">
                         <a:solidFill>
@@ -3765,15 +5188,6 @@
                     </a:r>
                   </a:p>
                   <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="1050" b="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:latin typeface="SimHei" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
-                        <a:ea typeface="SimHei" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
-                      </a:defRPr>
-                    </a:pPr>
                     <a:fld id="{A4DCBAC3-0E71-BD45-AC91-8C4270D59C41}" type="VALUE">
                       <a:rPr lang="en-US" altLang="zh-CN" sz="1050" b="1">
                         <a:solidFill>
@@ -3782,47 +5196,13 @@
                         <a:latin typeface="SimHei" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
                         <a:ea typeface="SimHei" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
                       </a:rPr>
-                      <a:pPr>
-                        <a:defRPr sz="1050" b="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:latin typeface="SimHei" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
-                          <a:ea typeface="SimHei" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
-                        </a:defRPr>
-                      </a:pPr>
+                      <a:pPr/>
                       <a:t>[值]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="zh-CN" altLang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:latin typeface="SimHei" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
-                      <a:ea typeface="SimHei" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="zh-CN"/>
-                </a:p>
-              </c:txPr>
               <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -3844,8 +5224,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.13371092398696194"/>
-                  <c:y val="-1.0653373222732332E-16"/>
+                  <c:x val="-7.2153636612597938E-2"/>
+                  <c:y val="0"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3974,7 +5354,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$111:$K$114</c:f>
+              <c:f>turb_flat_plate!$K$111:$K$114</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -3994,7 +5374,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$111:$L$114</c:f>
+              <c:f>turb_flat_plate!$L$111:$L$114</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4029,10 +5409,10 @@
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
+        <c:gapWidth val="34"/>
         <c:splitType val="pos"/>
         <c:splitPos val="2"/>
-        <c:secondPieSize val="75"/>
+        <c:secondPieSize val="60"/>
         <c:serLines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -4068,9 +5448,984 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.1648956222896237E-4"/>
+          <c:y val="2.7107850643890909E-2"/>
+          <c:w val="0.99847410075616982"/>
+          <c:h val="0.93685869402355149"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:ofPieChart>
+        <c:ofPieType val="bar"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-D5DD-9343-8CA2-08A4DA6F935E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-D5DD-9343-8CA2-08A4DA6F935E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-D5DD-9343-8CA2-08A4DA6F935E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-D5DD-9343-8CA2-08A4DA6F935E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.14351007843786748"/>
+                  <c:y val="-1.5443802450737218E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="zh-CN"/>
+                      <a:t>ILU</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="zh-CN" altLang="en-US"/>
+                      <a:t>分解</a:t>
+                    </a:r>
+                    <a:fld id="{7D754999-21A8-9540-BB7E-EA9F588DE5E3}" type="VALUE">
+                      <a:rPr lang="en-US" altLang="zh-CN"/>
+                      <a:pPr/>
+                      <a:t>[值]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-D5DD-9343-8CA2-08A4DA6F935E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.4633340533790473E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="zh-CN" altLang="en-US"/>
+                      <a:t>预处理</a:t>
+                    </a:r>
+                    <a:fld id="{957B8753-0B96-B54C-B68A-00024234B580}" type="VALUE">
+                      <a:rPr lang="en-US" altLang="zh-CN"/>
+                      <a:pPr/>
+                      <a:t>[值]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-D5DD-9343-8CA2-08A4DA6F935E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.8535722000489794E-2"/>
+                  <c:y val="-9.585196100304835E-17"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="zh-CN" altLang="en-US"/>
+                      <a:t>其他</a:t>
+                    </a:r>
+                    <a:fld id="{9361E926-ABD2-F84E-9871-969117EEC8CA}" type="VALUE">
+                      <a:rPr lang="en-US" altLang="zh-CN"/>
+                      <a:pPr/>
+                      <a:t>[值]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-D5DD-9343-8CA2-08A4DA6F935E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.33560465249907595"/>
+                  <c:y val="-1.4501670395810686E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="zh-CN"/>
+                      <a:t>FGMRES</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="zh-CN" altLang="en-US"/>
+                      <a:t>迭代</a:t>
+                    </a:r>
+                    <a:fld id="{41543CE0-5776-4F45-909E-7B99F72F238A}" type="VALUE">
+                      <a:rPr lang="en-US" altLang="zh-CN"/>
+                      <a:pPr/>
+                      <a:t>[值]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.25924828779618542"/>
+                      <c:h val="0.18304643627966183"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-D5DD-9343-8CA2-08A4DA6F935E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="SimHei" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+                    <a:ea typeface="SimHei" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Onera M6 &amp;&amp; F4'!$B$32:$B$34</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ILU分解</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>预处理</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>其他</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Onera M6 &amp;&amp; F4'!$C$32:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.48323079880680264</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27959209148189579</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23717000856757278</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-D5DD-9343-8CA2-08A4DA6F935E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="34"/>
+        <c:splitType val="pos"/>
+        <c:splitPos val="2"/>
+        <c:secondPieSize val="60"/>
+        <c:serLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:serLines>
+      </c:ofPieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.3781162505195162E-2"/>
+          <c:y val="4.8380904969135365E-2"/>
+          <c:w val="0.97431951822395779"/>
+          <c:h val="0.91558587442479111"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:ofPieChart>
+        <c:ofPieType val="bar"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-58C4-AD45-A7C3-1DB3AFCF4854}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-58C4-AD45-A7C3-1DB3AFCF4854}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ED7D31"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-58C4-AD45-A7C3-1DB3AFCF4854}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="A4A6A5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-58C4-AD45-A7C3-1DB3AFCF4854}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FEC003"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-58C4-AD45-A7C3-1DB3AFCF4854}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="zh-CN"/>
+                      <a:t>ILU</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="zh-CN" altLang="en-US"/>
+                      <a:t>分解</a:t>
+                    </a:r>
+                    <a:fld id="{7E6F4864-49A1-E84D-BE65-C76F2F2C42D9}" type="VALUE">
+                      <a:rPr lang="en-US" altLang="zh-CN"/>
+                      <a:pPr/>
+                      <a:t>[值]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-58C4-AD45-A7C3-1DB3AFCF4854}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.10684002764491088"/>
+                  <c:y val="0.11007163410994536"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="zh-CN"/>
+                      <a:t>GPU</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="zh-CN" altLang="en-US"/>
+                      <a:t>设置</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:fld id="{EC4DCC00-4A3E-5043-96E0-AE95ACFECF0B}" type="VALUE">
+                      <a:rPr lang="en-US" altLang="zh-CN"/>
+                      <a:pPr/>
+                      <a:t>[值]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-58C4-AD45-A7C3-1DB3AFCF4854}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.0690524065103701E-2"/>
+                  <c:y val="5.2236632769067535E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="zh-CN" altLang="en-US"/>
+                      <a:t>预处理</a:t>
+                    </a:r>
+                    <a:fld id="{17908629-C7B1-9D43-BE79-D06C8CEB4C6C}" type="VALUE">
+                      <a:rPr lang="en-US" altLang="zh-CN"/>
+                      <a:pPr/>
+                      <a:t>[值]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-58C4-AD45-A7C3-1DB3AFCF4854}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.628760839282806E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="zh-CN" altLang="en-US"/>
+                      <a:t>其他</a:t>
+                    </a:r>
+                    <a:fld id="{FAD83907-29F2-AE44-B691-BE04EBC90F76}" type="VALUE">
+                      <a:rPr lang="en-US" altLang="zh-CN"/>
+                      <a:pPr/>
+                      <a:t>[值]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-58C4-AD45-A7C3-1DB3AFCF4854}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.32756870623106588"/>
+                  <c:y val="1.8634904600278657E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="zh-CN"/>
+                      <a:t>FGMRES</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="zh-CN" altLang="en-US"/>
+                      <a:t>迭代</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:fld id="{1652FE3C-6B69-3F49-AAB1-3686A5A79496}" type="VALUE">
+                      <a:rPr lang="en-US" altLang="zh-CN"/>
+                      <a:pPr/>
+                      <a:t>[值]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.27404077163811447"/>
+                      <c:h val="0.22950185172693485"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-58C4-AD45-A7C3-1DB3AFCF4854}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="SimHei" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+                    <a:ea typeface="SimHei" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Onera M6 &amp;&amp; F4'!$E$32:$E$35</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>ILU分解</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GPU设置</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>预处理</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>其他</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Onera M6 &amp;&amp; F4'!$F$32:$F$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.12074543975220547</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17150114678994799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.39968290284151525</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.307070510616331</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-58C4-AD45-A7C3-1DB3AFCF4854}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="34"/>
+        <c:splitType val="pos"/>
+        <c:splitPos val="2"/>
+        <c:secondPieSize val="60"/>
+        <c:serLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:serLines>
+      </c:ofPieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:noFill/>
       <a:round/>
@@ -4096,6 +6451,86 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4375,6 +6810,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4878,8 +7393,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="333">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4890,7 +7405,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -4936,7 +7451,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -4944,8 +7459,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4967,8 +7482,8 @@
       <a:ln>
         <a:solidFill>
           <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -4980,6 +7495,532 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1440" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
@@ -4987,6 +8028,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -4997,6 +8043,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -5028,6 +8079,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5381,7 +8435,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5884,7 +8938,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6387,6 +9441,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="333">
   <cs:axisTitle>
@@ -7440,6 +10997,1058 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="333">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1440" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="333">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1440" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="333">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8116,28 +12725,239 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>682467</xdr:colOff>
+      <xdr:colOff>655898</xdr:colOff>
       <xdr:row>89</xdr:row>
-      <xdr:rowOff>185155</xdr:rowOff>
+      <xdr:rowOff>20989</xdr:rowOff>
     </xdr:from>
     <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>610803</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>168084</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="组合 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E02B005-5874-0048-92A5-53E735369E3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3942957" y="18831930"/>
+          <a:ext cx="9816081" cy="2448036"/>
+          <a:chOff x="3979262" y="18216410"/>
+          <a:chExt cx="9924999" cy="2366627"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="12" name="图表 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C7CFB20-4336-A34A-B1D8-60FA71673249}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr>
+            <a:graphicFrameLocks noChangeAspect="1"/>
+          </xdr:cNvGraphicFramePr>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="3979262" y="18216410"/>
+          <a:ext cx="3297963" cy="2363431"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="13" name="图表 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EC98674-C9F8-934D-BFC7-4299C37CAF45}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr>
+            <a:graphicFrameLocks/>
+          </xdr:cNvGraphicFramePr>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="7283450" y="18216410"/>
+          <a:ext cx="3300594" cy="2365551"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="14" name="图表 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56695967-46BB-9242-B37B-C0632B70C227}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr>
+            <a:graphicFrameLocks/>
+          </xdr:cNvGraphicFramePr>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="10603277" y="18216410"/>
+          <a:ext cx="3300984" cy="2366627"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>578846</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>124195</xdr:rowOff>
+      <xdr:colOff>592907</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>17378</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>459103</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>11328</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="组合 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCAD6E01-9A65-514A-A418-A96909F314ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8090987" y="3705458"/>
+          <a:ext cx="9741716" cy="2432350"/>
+          <a:chOff x="3979262" y="18216410"/>
+          <a:chExt cx="9924999" cy="2366627"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="3" name="图表 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCF9DDFD-F228-F34D-88F0-B9FF63BB3B57}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr>
+            <a:graphicFrameLocks noChangeAspect="1"/>
+          </xdr:cNvGraphicFramePr>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="3979262" y="18216410"/>
+          <a:ext cx="3297963" cy="2363431"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="4" name="图表 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE32EE27-68DE-EC47-8627-7293CCC2CE53}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr>
+            <a:graphicFrameLocks/>
+          </xdr:cNvGraphicFramePr>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="7283450" y="18216410"/>
+          <a:ext cx="3300594" cy="2365551"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="5" name="图表 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2E19BE8-FB4B-2040-9960-F2F49C9F9CA8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr>
+            <a:graphicFrameLocks/>
+          </xdr:cNvGraphicFramePr>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="10603277" y="18216410"/>
+          <a:ext cx="3300984" cy="2366627"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>629920</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>264160</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>20320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="图表 11">
+        <xdr:cNvPr id="11" name="图表 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C7CFB20-4336-A34A-B1D8-60FA71673249}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07476AD3-3B70-5F4D-BB1C-B1B67F37944D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noChangeAspect="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8145,83 +12965,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>142241</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>177801</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>183991</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="图表 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EC98674-C9F8-934D-BFC7-4299C37CAF45}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>526570</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>153511</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name="图表 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56695967-46BB-9242-B37B-C0632B70C227}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8529,27 +13273,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4D7965-781C-E449-B2A2-EC7799605C89}">
   <dimension ref="A2:M114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="157" zoomScaleNormal="257" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85"/>
+    <sheetView topLeftCell="A65" zoomScale="85" zoomScaleNormal="257" workbookViewId="0">
+      <selection activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="2" spans="1:6">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="B3" s="9"/>
+      <c r="B3" s="11"/>
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -8675,30 +13419,30 @@
     </row>
     <row r="18" spans="1:8" ht="17" thickBot="1"/>
     <row r="19" spans="1:8" ht="32" thickTop="1" thickBot="1">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>93931</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>482609</v>
       </c>
       <c r="D20">
@@ -8711,13 +13455,13 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>1069238</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>5512816</v>
       </c>
       <c r="D21">
@@ -8730,13 +13474,13 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>3107162</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>17962870</v>
       </c>
       <c r="D22">
@@ -8749,23 +13493,23 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="17" thickBot="1">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="17" thickTop="1"/>
     <row r="26" spans="1:8">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G26" t="s">
@@ -8937,7 +13681,7 @@
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -9450,12 +14194,12 @@
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
     </row>
     <row r="75" spans="1:5">
       <c r="B75">
@@ -9542,12 +14286,12 @@
       </c>
     </row>
     <row r="82" spans="2:5">
-      <c r="B82" s="9" t="s">
+      <c r="B82" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
     </row>
     <row r="83" spans="2:5">
       <c r="B83">
@@ -9606,7 +14350,7 @@
       <c r="C91">
         <v>2.0122236000000004</v>
       </c>
-      <c r="D91" s="10">
+      <c r="D91" s="9">
         <f>C91/$C$90</f>
         <v>0.14101281924782089</v>
       </c>
@@ -9618,7 +14362,7 @@
       <c r="C92">
         <v>12.257506000000001</v>
       </c>
-      <c r="D92" s="10">
+      <c r="D92" s="9">
         <f t="shared" ref="D92:D94" si="4">C92/$C$90</f>
         <v>0.85898280787834891</v>
       </c>
@@ -9630,7 +14374,7 @@
       <c r="C93">
         <v>0.84779874000000011</v>
       </c>
-      <c r="D93" s="10">
+      <c r="D93" s="9">
         <f t="shared" si="4"/>
         <v>5.9412130183817684E-2</v>
       </c>
@@ -9643,7 +14387,7 @@
         <f>C92-C93</f>
         <v>11.409707260000001</v>
       </c>
-      <c r="D94" s="10">
+      <c r="D94" s="9">
         <f t="shared" si="4"/>
         <v>0.79957067769453127</v>
       </c>
@@ -9657,7 +14401,7 @@
       <c r="B98" t="s">
         <v>30</v>
       </c>
-      <c r="C98" s="10">
+      <c r="C98" s="9">
         <v>0.14101281924782089</v>
       </c>
     </row>
@@ -9665,7 +14409,7 @@
       <c r="B99" t="s">
         <v>31</v>
       </c>
-      <c r="C99" s="10">
+      <c r="C99" s="9">
         <v>5.9412130183817684E-2</v>
       </c>
     </row>
@@ -9673,7 +14417,7 @@
       <c r="B100" t="s">
         <v>32</v>
       </c>
-      <c r="C100" s="10">
+      <c r="C100" s="9">
         <v>0.79957067769453127</v>
       </c>
     </row>
@@ -9704,7 +14448,7 @@
       <c r="L104">
         <v>3.9303435294117638E-2</v>
       </c>
-      <c r="M104" s="10">
+      <c r="M104" s="9">
         <f>L104/$L$103</f>
         <v>8.7740628751565602E-2</v>
       </c>
@@ -9724,63 +14468,63 @@
         <f>L103-L104-L106</f>
         <v>0.11744609411764712</v>
       </c>
-      <c r="M105" s="10">
+      <c r="M105" s="9">
         <f t="shared" ref="M105:M108" si="5">L105/$L$103</f>
         <v>0.26218558416546811</v>
       </c>
     </row>
     <row r="106" spans="2:13">
-      <c r="B106" s="11" t="s">
+      <c r="B106" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C106" s="11">
+      <c r="C106" s="10">
         <v>0.24040439</v>
       </c>
-      <c r="K106" s="11" t="s">
+      <c r="K106" s="10" t="s">
         <v>33</v>
       </c>
       <c r="L106">
         <v>0.29120070588235292</v>
       </c>
-      <c r="M106" s="10">
+      <c r="M106" s="9">
         <f t="shared" si="5"/>
         <v>0.65007378708296637</v>
       </c>
     </row>
     <row r="107" spans="2:13">
-      <c r="B107" s="11" t="s">
+      <c r="B107" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C107" s="11">
+      <c r="C107" s="10">
         <v>7.8753400000000001E-2</v>
       </c>
-      <c r="K107" s="11" t="s">
+      <c r="K107" s="10" t="s">
         <v>31</v>
       </c>
       <c r="L107">
         <v>0.13012901960784312</v>
       </c>
-      <c r="M107" s="10">
+      <c r="M107" s="9">
         <f t="shared" si="5"/>
         <v>0.290498830796243</v>
       </c>
     </row>
     <row r="108" spans="2:13">
-      <c r="B108" s="11" t="s">
+      <c r="B108" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C108" s="11">
+      <c r="C108" s="10">
         <f>C106-C107</f>
         <v>0.16165098999999999</v>
       </c>
-      <c r="K108" s="11" t="s">
+      <c r="K108" s="10" t="s">
         <v>32</v>
       </c>
       <c r="L108">
         <f>L106-L107</f>
         <v>0.1610716862745098</v>
       </c>
-      <c r="M108" s="10">
+      <c r="M108" s="9">
         <f t="shared" si="5"/>
         <v>0.35957495628672337</v>
       </c>
@@ -9789,14 +14533,14 @@
       <c r="B111" t="s">
         <v>30</v>
       </c>
-      <c r="C111" s="10">
+      <c r="C111" s="9">
         <v>4.9471636560463036E-2</v>
       </c>
-      <c r="D111" s="10"/>
+      <c r="D111" s="9"/>
       <c r="K111" t="s">
         <v>30</v>
       </c>
-      <c r="L111" s="10">
+      <c r="L111" s="9">
         <v>8.7740628751565602E-2</v>
       </c>
     </row>
@@ -9804,14 +14548,14 @@
       <c r="B112" t="s">
         <v>35</v>
       </c>
-      <c r="C112" s="10">
+      <c r="C112" s="9">
         <v>0.16245692807774284</v>
       </c>
-      <c r="D112" s="10"/>
+      <c r="D112" s="9"/>
       <c r="K112" t="s">
         <v>36</v>
       </c>
-      <c r="L112" s="10">
+      <c r="L112" s="9">
         <v>0.26218558416546811</v>
       </c>
     </row>
@@ -9819,14 +14563,14 @@
       <c r="B113" t="s">
         <v>31</v>
       </c>
-      <c r="C113" s="10">
+      <c r="C113" s="9">
         <v>0.25816211167201036</v>
       </c>
-      <c r="D113" s="10"/>
-      <c r="K113" s="11" t="s">
+      <c r="D113" s="9"/>
+      <c r="K113" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L113" s="10">
+      <c r="L113" s="9">
         <v>0.290498830796243</v>
       </c>
     </row>
@@ -9834,14 +14578,14 @@
       <c r="B114" t="s">
         <v>32</v>
       </c>
-      <c r="C114" s="10">
+      <c r="C114" s="9">
         <v>0.52990932368978383</v>
       </c>
-      <c r="D114" s="10"/>
-      <c r="K114" s="11" t="s">
+      <c r="D114" s="9"/>
+      <c r="K114" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="L114" s="10">
+      <c r="L114" s="9">
         <v>0.35957495628672337</v>
       </c>
     </row>
@@ -9862,27 +14606,1057 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266CDA95-DF76-D54E-8B6D-9940125746EB}">
-  <dimension ref="B1:D1"/>
+  <dimension ref="A2:I94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="125" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:4">
-      <c r="B1" s="1" t="s">
+    <row r="2" spans="2:7">
+      <c r="B2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="11"/>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4">
+        <v>1.9988245098039212</v>
+      </c>
+      <c r="C4">
+        <v>6.324442941176471E-2</v>
+      </c>
+      <c r="D4">
+        <f>B4/C4</f>
+        <v>31.604752045278165</v>
+      </c>
+      <c r="E4">
+        <v>0.20620764705882347</v>
+      </c>
+      <c r="F4">
+        <f>B4/E4</f>
+        <v>9.6932608383515966</v>
+      </c>
+      <c r="G4">
+        <f>F4/D4</f>
+        <v>0.30670263840275236</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5">
+        <v>9.1672611764705856</v>
+      </c>
+      <c r="C5">
+        <v>0.26070811960784313</v>
+      </c>
+      <c r="D5">
+        <f>B5/C5</f>
+        <v>35.162929295259275</v>
+      </c>
+      <c r="E5">
+        <v>0.55957542156862727</v>
+      </c>
+      <c r="F5">
+        <f>B5/E5</f>
+        <v>16.382530081061283</v>
+      </c>
+      <c r="G5">
+        <f>F5/D5</f>
+        <v>0.46590345029274916</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="17" thickBot="1"/>
+    <row r="9" spans="2:7" ht="32" thickTop="1" thickBot="1">
+      <c r="B9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="2">
+        <v>108396</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1529446</v>
+      </c>
+      <c r="E10">
+        <f>D10*25</f>
+        <v>38236150</v>
+      </c>
+      <c r="F10">
+        <f>E10*8/1024/1024</f>
+        <v>291.71867370605469</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1220883</v>
+      </c>
+      <c r="D11" s="4">
+        <v>11766653</v>
+      </c>
+      <c r="E11">
+        <f>D11*25</f>
+        <v>294166325</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ref="F11" si="0">E11*8/1024/1024</f>
+        <v>2244.3109512329102</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="2:7" ht="17" thickBot="1">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="2:7" ht="17" thickTop="1"/>
+    <row r="16" spans="2:7">
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17">
+        <v>9.1672611764705856</v>
+      </c>
+      <c r="C17">
+        <v>4.4299029411764703</v>
+      </c>
+      <c r="D17">
+        <v>4.7372931372549019</v>
+      </c>
+      <c r="E17">
+        <v>2.5630937254901958</v>
+      </c>
+      <c r="G17">
+        <f>D17-E17</f>
+        <v>2.1741994117647061</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18">
+        <v>0.26070811960784313</v>
+      </c>
+      <c r="C18">
+        <v>3.1479316549019601E-2</v>
+      </c>
+      <c r="D18">
+        <v>0.18451706156862752</v>
+      </c>
+      <c r="E18">
+        <v>0.1042005780392157</v>
+      </c>
+      <c r="F18">
+        <f>B18-C18-D18</f>
+        <v>4.4711741490196022E-2</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ref="G18:G19" si="1">D18-E18</f>
+        <v>8.0316483529411814E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19">
+        <v>0.55957542156862727</v>
+      </c>
+      <c r="C19">
+        <v>0.19986381490196076</v>
+      </c>
+      <c r="D19">
+        <v>0.23333779803921564</v>
+      </c>
+      <c r="E19">
+        <v>0.16105950470588234</v>
+      </c>
+      <c r="F19">
+        <f>B19-C19-D19</f>
+        <v>0.12637380862745087</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>7.2278293333333299E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23">
+        <v>4.4299029411764703</v>
+      </c>
+      <c r="D23">
+        <f>C23/$B$17</f>
+        <v>0.48323079880680264</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24">
+        <v>2.5630937254901958</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ref="D24:D25" si="2">C24/$B$17</f>
+        <v>0.27959209148189579</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25">
+        <v>2.1741994117647061</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>0.23717000856757278</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27">
+        <v>3.1479316549019601E-2</v>
+      </c>
+      <c r="D27">
+        <f>C27/$B$18</f>
+        <v>0.12074543975220547</v>
+      </c>
+      <c r="E27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27">
+        <v>0.19986381490196076</v>
+      </c>
+      <c r="G27">
+        <f>F27/$B$19</f>
+        <v>0.35717046746208658</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28">
+        <v>4.4711741490196022E-2</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ref="D28:D30" si="3">C28/$B$18</f>
+        <v>0.17150114678994799</v>
+      </c>
+      <c r="E28" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28">
+        <v>0.12637380862745087</v>
+      </c>
+      <c r="G28">
+        <f t="shared" ref="G28:G30" si="4">F28/$B$19</f>
+        <v>0.22583874086748496</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29">
+        <v>0.1042005780392157</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="3"/>
+        <v>0.39968290284151525</v>
+      </c>
+      <c r="E29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29">
+        <v>0.16105950470588234</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="4"/>
+        <v>0.28782447995016119</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30">
+        <v>8.0316483529411814E-2</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="3"/>
+        <v>0.30807051061633134</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30">
+        <v>7.2278293333333299E-2</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="4"/>
+        <v>0.1291663117202673</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="9">
+        <v>0.48323079880680264</v>
+      </c>
+      <c r="E32" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" s="9">
+        <v>0.12074543975220547</v>
+      </c>
+      <c r="H32" t="s">
+        <v>40</v>
+      </c>
+      <c r="I32" s="9">
+        <v>0.35717046746208658</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="9">
+        <v>0.27959209148189579</v>
+      </c>
+      <c r="E33" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" s="9">
+        <v>0.17150114678994799</v>
+      </c>
+      <c r="H33" t="s">
+        <v>36</v>
+      </c>
+      <c r="I33" s="9">
+        <v>0.22583874086748496</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="9">
+        <v>0.23717000856757278</v>
+      </c>
+      <c r="E34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" s="9">
+        <v>0.39968290284151525</v>
+      </c>
+      <c r="H34" t="s">
+        <v>42</v>
+      </c>
+      <c r="I34" s="9">
+        <v>0.28782447995016119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" s="9">
+        <v>0.307070510616331</v>
+      </c>
+      <c r="H35" t="s">
+        <v>43</v>
+      </c>
+      <c r="I35" s="9">
+        <v>0.12916631172026699</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="B38">
+        <v>3.8519454901960777E-4</v>
+      </c>
+      <c r="C38">
+        <v>1.8397034490196078E-2</v>
+      </c>
+      <c r="D38">
+        <v>2.4916412823529415E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="B39">
+        <v>6.0226651372549048E-5</v>
+      </c>
+      <c r="C39">
+        <v>5.2378614509803935E-5</v>
+      </c>
+      <c r="D39">
+        <v>4.8143287058823546E-5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="E43" t="s">
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>47</v>
+      </c>
+      <c r="G43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="E44" s="8">
+        <v>3</v>
+      </c>
+      <c r="F44">
+        <v>7</v>
+      </c>
+      <c r="G44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="E45" s="8">
+        <v>3</v>
+      </c>
+      <c r="F45">
+        <v>7</v>
+      </c>
+      <c r="G45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="E46" s="8">
+        <v>3</v>
+      </c>
+      <c r="F46">
+        <v>8</v>
+      </c>
+      <c r="G46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="E47" s="8">
+        <v>3</v>
+      </c>
+      <c r="F47">
+        <v>8</v>
+      </c>
+      <c r="G47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="E48" s="8">
+        <v>4</v>
+      </c>
+      <c r="F48">
+        <v>8</v>
+      </c>
+      <c r="G48">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="49" spans="5:7">
+      <c r="E49" s="8">
+        <v>4</v>
+      </c>
+      <c r="F49">
+        <v>8</v>
+      </c>
+      <c r="G49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="5:7">
+      <c r="E50" s="8">
+        <v>4</v>
+      </c>
+      <c r="F50">
+        <v>8</v>
+      </c>
+      <c r="G50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="5:7">
+      <c r="E51" s="8">
+        <v>4</v>
+      </c>
+      <c r="F51">
+        <v>8</v>
+      </c>
+      <c r="G51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="5:7">
+      <c r="E52" s="8">
+        <v>4</v>
+      </c>
+      <c r="F52">
+        <v>8</v>
+      </c>
+      <c r="G52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="5:7">
+      <c r="E53" s="8">
+        <v>4</v>
+      </c>
+      <c r="F53">
+        <v>8</v>
+      </c>
+      <c r="G53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="5:7">
+      <c r="E54" s="8">
+        <v>4</v>
+      </c>
+      <c r="F54">
+        <v>7</v>
+      </c>
+      <c r="G54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="5:7">
+      <c r="E55" s="8">
+        <v>4</v>
+      </c>
+      <c r="F55">
+        <v>7</v>
+      </c>
+      <c r="G55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="5:7">
+      <c r="E56" s="8">
+        <v>4</v>
+      </c>
+      <c r="F56">
+        <v>7</v>
+      </c>
+      <c r="G56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="5:7">
+      <c r="E57" s="8">
+        <v>4</v>
+      </c>
+      <c r="F57">
+        <v>7</v>
+      </c>
+      <c r="G57">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="58" spans="5:7">
+      <c r="E58" s="8">
+        <v>4</v>
+      </c>
+      <c r="F58">
         <v>7</v>
       </c>
+      <c r="G58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="5:7">
+      <c r="E59" s="8">
+        <v>4</v>
+      </c>
+      <c r="F59">
+        <v>7</v>
+      </c>
+      <c r="G59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="5:7">
+      <c r="E60" s="8">
+        <v>4</v>
+      </c>
+      <c r="F60">
+        <v>7</v>
+      </c>
+      <c r="G60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="5:7">
+      <c r="E61" s="8">
+        <v>4</v>
+      </c>
+      <c r="F61">
+        <v>7</v>
+      </c>
+      <c r="G61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="5:7">
+      <c r="E62" s="8">
+        <v>4</v>
+      </c>
+      <c r="F62">
+        <v>7</v>
+      </c>
+      <c r="G62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="5:7">
+      <c r="E63" s="8">
+        <v>4</v>
+      </c>
+      <c r="F63">
+        <v>7</v>
+      </c>
+      <c r="G63">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="5:7">
+      <c r="E64" s="8">
+        <v>4</v>
+      </c>
+      <c r="F64">
+        <v>7</v>
+      </c>
+      <c r="G64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="5:7">
+      <c r="E65" s="8">
+        <v>4</v>
+      </c>
+      <c r="F65">
+        <v>7</v>
+      </c>
+      <c r="G65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="5:7">
+      <c r="E66" s="8">
+        <v>4</v>
+      </c>
+      <c r="F66">
+        <v>7</v>
+      </c>
+      <c r="G66">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="5:7">
+      <c r="E67" s="8">
+        <v>4</v>
+      </c>
+      <c r="F67">
+        <v>7</v>
+      </c>
+      <c r="G67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="5:7">
+      <c r="E68" s="8">
+        <v>4</v>
+      </c>
+      <c r="F68">
+        <v>7</v>
+      </c>
+      <c r="G68">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="5:7">
+      <c r="E69" s="8">
+        <v>4</v>
+      </c>
+      <c r="F69">
+        <v>7</v>
+      </c>
+      <c r="G69">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="5:7">
+      <c r="E70" s="8">
+        <v>4</v>
+      </c>
+      <c r="F70">
+        <v>7</v>
+      </c>
+      <c r="G70">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="5:7">
+      <c r="E71" s="8">
+        <v>4</v>
+      </c>
+      <c r="F71">
+        <v>7</v>
+      </c>
+      <c r="G71">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="5:7">
+      <c r="E72" s="8">
+        <v>4</v>
+      </c>
+      <c r="F72">
+        <v>7</v>
+      </c>
+      <c r="G72">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="5:7">
+      <c r="E73" s="8">
+        <v>4</v>
+      </c>
+      <c r="F73">
+        <v>7</v>
+      </c>
+      <c r="G73">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="5:7">
+      <c r="E74" s="8">
+        <v>4</v>
+      </c>
+      <c r="F74">
+        <v>7</v>
+      </c>
+      <c r="G74">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="5:7">
+      <c r="E75" s="8">
+        <v>4</v>
+      </c>
+      <c r="F75">
+        <v>7</v>
+      </c>
+      <c r="G75">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="5:7">
+      <c r="E76" s="8">
+        <v>4</v>
+      </c>
+      <c r="F76">
+        <v>7</v>
+      </c>
+      <c r="G76">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="5:7">
+      <c r="E77" s="8">
+        <v>4</v>
+      </c>
+      <c r="F77">
+        <v>7</v>
+      </c>
+      <c r="G77">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="5:7">
+      <c r="E78" s="8">
+        <v>4</v>
+      </c>
+      <c r="F78">
+        <v>7</v>
+      </c>
+      <c r="G78">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="5:7">
+      <c r="E79" s="8">
+        <v>4</v>
+      </c>
+      <c r="F79">
+        <v>7</v>
+      </c>
+      <c r="G79">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="5:7">
+      <c r="E80" s="8">
+        <v>4</v>
+      </c>
+      <c r="F80">
+        <v>7</v>
+      </c>
+      <c r="G80">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="5:7">
+      <c r="E81" s="8">
+        <v>4</v>
+      </c>
+      <c r="F81">
+        <v>7</v>
+      </c>
+      <c r="G81">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="5:7">
+      <c r="E82" s="8">
+        <v>4</v>
+      </c>
+      <c r="F82">
+        <v>7</v>
+      </c>
+      <c r="G82">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="5:7">
+      <c r="E83" s="8">
+        <v>4</v>
+      </c>
+      <c r="F83">
+        <v>7</v>
+      </c>
+      <c r="G83">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="5:7">
+      <c r="E84" s="8">
+        <v>4</v>
+      </c>
+      <c r="F84">
+        <v>7</v>
+      </c>
+      <c r="G84">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="5:7">
+      <c r="E85" s="8">
+        <v>4</v>
+      </c>
+      <c r="F85">
+        <v>7</v>
+      </c>
+      <c r="G85">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="5:7">
+      <c r="E86" s="8">
+        <v>4</v>
+      </c>
+      <c r="F86">
+        <v>7</v>
+      </c>
+      <c r="G86">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="5:7">
+      <c r="E87" s="8">
+        <v>4</v>
+      </c>
+      <c r="F87">
+        <v>7</v>
+      </c>
+      <c r="G87">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="5:7">
+      <c r="E88" s="8">
+        <v>4</v>
+      </c>
+      <c r="F88">
+        <v>7</v>
+      </c>
+      <c r="G88">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="5:7">
+      <c r="E89" s="8">
+        <v>4</v>
+      </c>
+      <c r="F89">
+        <v>7</v>
+      </c>
+      <c r="G89">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="5:7">
+      <c r="E90" s="8">
+        <v>4</v>
+      </c>
+      <c r="F90">
+        <v>7</v>
+      </c>
+      <c r="G90">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="5:7">
+      <c r="E91" s="8">
+        <v>4</v>
+      </c>
+      <c r="F91">
+        <v>7</v>
+      </c>
+      <c r="G91">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="5:7">
+      <c r="E92" s="8">
+        <v>4</v>
+      </c>
+      <c r="F92">
+        <v>7</v>
+      </c>
+      <c r="G92">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="5:7">
+      <c r="E93" s="8">
+        <v>4</v>
+      </c>
+      <c r="F93">
+        <v>7</v>
+      </c>
+      <c r="G93">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="5:7">
+      <c r="E94" s="8">
+        <v>4</v>
+      </c>
+      <c r="F94">
+        <v>7</v>
+      </c>
+      <c r="G94">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/xjh/pictures/第四章/pictures.xlsx
+++ b/xjh/pictures/第四章/pictures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xjh/thesis/xjh/pictures/第四章/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2B656B-C9E0-2145-87DA-62CAEC21ED7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C1FE73-9CB4-014A-9F9F-BB263C7EFFF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{3023509B-8782-0248-A960-7BF2A7E53CDE}"/>
   </bookViews>
@@ -16,6 +16,22 @@
     <sheet name="turb_flat_plate" sheetId="1" r:id="rId1"/>
     <sheet name="Onera M6 &amp;&amp; F4" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Onera M6 &amp;&amp; F4'!$B$42</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Onera M6 &amp;&amp; F4'!$B$43</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'Onera M6 &amp;&amp; F4'!$C$41:$D$41</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'Onera M6 &amp;&amp; F4'!$C$42:$D$42</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'Onera M6 &amp;&amp; F4'!$C$43:$D$43</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'Onera M6 &amp;&amp; F4'!$C$44:$D$44</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Onera M6 &amp;&amp; F4'!$B$44</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Onera M6 &amp;&amp; F4'!$C$41:$D$41</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Onera M6 &amp;&amp; F4'!$C$42:$D$42</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Onera M6 &amp;&amp; F4'!$C$43:$D$43</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Onera M6 &amp;&amp; F4'!$C$44:$D$44</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Onera M6 &amp;&amp; F4'!$B$42</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Onera M6 &amp;&amp; F4'!$B$43</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'Onera M6 &amp;&amp; F4'!$B$44</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="51">
   <si>
     <t>CPU</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -212,6 +228,14 @@
     <t>GPU(ILU1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>DLR-F4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Onera</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -311,7 +335,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -348,6 +372,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -356,9 +383,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFED7D31"/>
       <color rgb="FFA4A5A6"/>
       <color rgb="FFA4A6A5"/>
-      <color rgb="FFED7D31"/>
       <color rgb="FFA5A5A5"/>
       <color rgb="FFA5A4A6"/>
       <color rgb="FFA5A5A4"/>
@@ -1428,39 +1455,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11753446557962323"/>
+          <c:y val="5.8455355924912696E-2"/>
+          <c:w val="0.84986873047561728"/>
+          <c:h val="0.75005758615147489"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1676,8 +1683,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
+              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1871,8 +1879,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:srgbClr val="ED7D31"/>
               </a:solidFill>
+              <a:prstDash val="dashDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2068,18 +2077,101 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="SimHei" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+                    <a:ea typeface="SimHei" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+                  </a:rPr>
+                  <a:t>DLR-F4</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="SimHei" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+                    <a:ea typeface="SimHei" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+                  </a:rPr>
+                  <a:t> 算例</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="SimHei" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+                  <a:ea typeface="SimHei" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.45310789900743481"/>
+              <c:y val="0.912130762580873"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -2110,6 +2202,8 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="2"/>
+        <c:tickMarkSkip val="2"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -2119,28 +2213,85 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="SimHei" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+                    <a:ea typeface="SimHei" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="SimHei" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+                    <a:ea typeface="SimHei" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+                  </a:rPr>
+                  <a:t>子迭代步数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.6611295681063124E-2"/>
+              <c:y val="0.30316878010362808"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="SimHei" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+                  <a:ea typeface="SimHei" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2182,8 +2333,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.36144116360454942"/>
-          <c:y val="0.13483741615631376"/>
+          <c:x val="0.40747561444435992"/>
+          <c:y val="7.6381944031821136E-2"/>
           <c:w val="0.54378412073490812"/>
           <c:h val="7.8125546806649182E-2"/>
         </c:manualLayout>
@@ -2226,12 +2377,331 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Onera M6 &amp;&amp; F4'!$C$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DLR-F4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Onera M6 &amp;&amp; F4'!$B$48:$B$50</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>CPU</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GPU ILU(0)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GPU ILU(1)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Onera M6 &amp;&amp; F4'!$C$48:$C$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.0226651372549048E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2378614509803935E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8143287058823546E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D299-C749-8F60-38EB5BB110B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="42"/>
+        <c:overlap val="54"/>
+        <c:axId val="111755072"/>
+        <c:axId val="111756704"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="111755072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="111756704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="111756704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6.0000000000000022E-5"/>
+          <c:min val="1.0000000000000004E-5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>残差</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>/</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>初始残差</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0E+00" sourceLinked="0"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="111755072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -6570,6 +7040,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -8435,6 +8945,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -12833,16 +13846,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>592907</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>17378</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>338907</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>102045</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>459103</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>11328</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>205103</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95995</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -12857,7 +13870,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8090987" y="3705458"/>
+          <a:off x="9005387" y="4806125"/>
           <a:ext cx="9741716" cy="2432350"/>
           <a:chOff x="3979262" y="18216410"/>
           <a:chExt cx="9924999" cy="2366627"/>
@@ -12938,15 +13951,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>629920</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:colOff>247526</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>115224</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>264160</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>20320</xdr:rowOff>
+      <xdr:colOff>673</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>155582</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12966,6 +13979,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>684069</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>70716</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>607581</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>89333</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="图表 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EB972EA-4341-C34A-AE86-113885DE9718}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13273,27 +14322,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4D7965-781C-E449-B2A2-EC7799605C89}">
   <dimension ref="A2:M114"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" zoomScale="85" zoomScaleNormal="257" workbookViewId="0">
-      <selection activeCell="H89" sqref="H89"/>
+    <sheetView zoomScale="85" zoomScaleNormal="257" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="2" spans="1:6">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="11"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="B3" s="11"/>
+      <c r="B3" s="12"/>
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -14194,12 +15243,12 @@
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="B74" s="11" t="s">
+      <c r="B74" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
-      <c r="E74" s="11"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
     </row>
     <row r="75" spans="1:5">
       <c r="B75">
@@ -14286,12 +15335,12 @@
       </c>
     </row>
     <row r="82" spans="2:5">
-      <c r="B82" s="11" t="s">
+      <c r="B82" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
     </row>
     <row r="83" spans="2:5">
       <c r="B83">
@@ -14606,32 +15655,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266CDA95-DF76-D54E-8B6D-9940125746EB}">
-  <dimension ref="A2:I94"/>
+  <dimension ref="A2:O94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="125" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" topLeftCell="D5" zoomScale="125" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="2:15">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="11"/>
+      <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="2:7">
-      <c r="B3" s="11"/>
+    <row r="3" spans="2:15">
+      <c r="B3" s="12"/>
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -14645,7 +15697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:15">
       <c r="B4">
         <v>1.9988245098039212</v>
       </c>
@@ -14668,7 +15720,7 @@
         <v>0.30670263840275236</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:15">
       <c r="B5">
         <v>9.1672611764705856</v>
       </c>
@@ -14691,8 +15743,8 @@
         <v>0.46590345029274916</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="17" thickBot="1"/>
-    <row r="9" spans="2:7" ht="32" thickTop="1" thickBot="1">
+    <row r="8" spans="2:15" ht="17" thickBot="1"/>
+    <row r="9" spans="2:15" ht="32" thickTop="1" thickBot="1">
       <c r="B9" s="6" t="s">
         <v>14</v>
       </c>
@@ -14709,7 +15761,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:15">
       <c r="B10" s="1" t="s">
         <v>38</v>
       </c>
@@ -14728,7 +15780,7 @@
         <v>291.71867370605469</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:15">
       <c r="B11" s="3" t="s">
         <v>37</v>
       </c>
@@ -14747,20 +15799,20 @@
         <v>2244.3109512329102</v>
       </c>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:15">
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="2:7" ht="17" thickBot="1">
+    <row r="13" spans="2:15" ht="17" thickBot="1">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="2:7" ht="17" thickTop="1"/>
-    <row r="16" spans="2:7">
+    <row r="14" spans="2:15" ht="17" thickTop="1"/>
+    <row r="16" spans="2:15">
       <c r="B16" t="s">
         <v>39</v>
       </c>
@@ -14779,8 +15831,29 @@
       <c r="G16" t="s">
         <v>43</v>
       </c>
+      <c r="J16" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16" t="s">
+        <v>40</v>
+      </c>
+      <c r="L16" t="s">
+        <v>41</v>
+      </c>
+      <c r="M16" t="s">
+        <v>42</v>
+      </c>
+      <c r="N16" t="s">
+        <v>36</v>
+      </c>
+      <c r="O16" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="1:13">
+      <c r="A17" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="B17">
         <v>9.1672611764705856</v>
       </c>
@@ -14797,8 +15870,24 @@
         <f>D17-E17</f>
         <v>2.1741994117647061</v>
       </c>
+      <c r="I17" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J17">
+        <v>1.9988245098039212</v>
+      </c>
+      <c r="K17">
+        <v>0.69401454901960768</v>
+      </c>
+      <c r="L17">
+        <v>1.3047494117647063</v>
+      </c>
+      <c r="M17">
+        <v>0.77693533333333331</v>
+      </c>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="1:13">
+      <c r="A18" s="12"/>
       <c r="B18">
         <v>0.26070811960784313</v>
       </c>
@@ -14819,8 +15908,22 @@
         <f t="shared" ref="G18:G19" si="1">D18-E18</f>
         <v>8.0316483529411814E-2</v>
       </c>
+      <c r="I18" s="12"/>
+      <c r="J18">
+        <v>6.324442941176471E-2</v>
+      </c>
+      <c r="K18">
+        <v>7.0642225490196078E-3</v>
+      </c>
+      <c r="L18">
+        <v>4.630970980392158E-2</v>
+      </c>
+      <c r="M18">
+        <v>2.1872423529411763E-2</v>
+      </c>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="1:13">
+      <c r="A19" s="12"/>
       <c r="B19">
         <v>0.55957542156862727</v>
       </c>
@@ -14841,8 +15944,21 @@
         <f t="shared" si="1"/>
         <v>7.2278293333333299E-2</v>
       </c>
+      <c r="I19" s="12"/>
+      <c r="J19">
+        <v>0.20620764705882347</v>
+      </c>
+      <c r="K19">
+        <v>8.629275686274511E-2</v>
+      </c>
+      <c r="L19">
+        <v>9.2913327450980368E-2</v>
+      </c>
+      <c r="M19">
+        <v>6.7135154901960759E-2</v>
+      </c>
     </row>
-    <row r="23" spans="2:9">
+    <row r="23" spans="1:13">
       <c r="B23" t="s">
         <v>40</v>
       </c>
@@ -14854,7 +15970,7 @@
         <v>0.48323079880680264</v>
       </c>
     </row>
-    <row r="24" spans="2:9">
+    <row r="24" spans="1:13">
       <c r="B24" t="s">
         <v>42</v>
       </c>
@@ -14866,7 +15982,7 @@
         <v>0.27959209148189579</v>
       </c>
     </row>
-    <row r="25" spans="2:9">
+    <row r="25" spans="1:13">
       <c r="B25" t="s">
         <v>43</v>
       </c>
@@ -14878,7 +15994,7 @@
         <v>0.23717000856757278</v>
       </c>
     </row>
-    <row r="27" spans="2:9">
+    <row r="27" spans="1:13">
       <c r="B27" t="s">
         <v>40</v>
       </c>
@@ -14900,7 +16016,7 @@
         <v>0.35717046746208658</v>
       </c>
     </row>
-    <row r="28" spans="2:9">
+    <row r="28" spans="1:13">
       <c r="B28" t="s">
         <v>36</v>
       </c>
@@ -14922,7 +16038,7 @@
         <v>0.22583874086748496</v>
       </c>
     </row>
-    <row r="29" spans="2:9">
+    <row r="29" spans="1:13">
       <c r="B29" t="s">
         <v>42</v>
       </c>
@@ -14944,7 +16060,7 @@
         <v>0.28782447995016119</v>
       </c>
     </row>
-    <row r="30" spans="2:9">
+    <row r="30" spans="1:13">
       <c r="B30" t="s">
         <v>43</v>
       </c>
@@ -14966,7 +16082,7 @@
         <v>0.1291663117202673</v>
       </c>
     </row>
-    <row r="32" spans="2:9">
+    <row r="32" spans="1:13">
       <c r="B32" t="s">
         <v>40</v>
       </c>
@@ -15064,6 +16180,15 @@
       <c r="D38">
         <v>2.4916412823529415E-3</v>
       </c>
+      <c r="F38" t="s">
+        <v>0</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="39" spans="1:9">
       <c r="B39">
@@ -15075,8 +16200,46 @@
       <c r="D39">
         <v>4.8143287058823546E-5</v>
       </c>
+      <c r="F39">
+        <v>6.0226651372549048E-5</v>
+      </c>
+      <c r="G39">
+        <v>5.2378614509803935E-5</v>
+      </c>
+      <c r="H39">
+        <v>4.8143287058823546E-5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="B41" s="11"/>
+      <c r="C41" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="B42" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="11">
+        <v>3.8519454901960777E-4</v>
+      </c>
+      <c r="D42" s="11">
+        <v>6.0226651372549048E-5</v>
+      </c>
     </row>
     <row r="43" spans="1:9">
+      <c r="B43" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="11">
+        <v>1.8397034490196078E-2</v>
+      </c>
+      <c r="D43" s="11">
+        <v>5.2378614509803935E-5</v>
+      </c>
       <c r="E43" t="s">
         <v>0</v>
       </c>
@@ -15088,6 +16251,15 @@
       </c>
     </row>
     <row r="44" spans="1:9">
+      <c r="B44" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="11">
+        <v>2.4916412823529415E-3</v>
+      </c>
+      <c r="D44" s="11">
+        <v>4.8143287058823546E-5</v>
+      </c>
       <c r="E44" s="8">
         <v>3</v>
       </c>
@@ -15110,6 +16282,7 @@
       </c>
     </row>
     <row r="46" spans="1:9">
+      <c r="B46" s="11"/>
       <c r="E46" s="8">
         <v>3</v>
       </c>
@@ -15121,6 +16294,10 @@
       </c>
     </row>
     <row r="47" spans="1:9">
+      <c r="B47" s="11"/>
+      <c r="C47" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="E47" s="8">
         <v>3</v>
       </c>
@@ -15132,6 +16309,12 @@
       </c>
     </row>
     <row r="48" spans="1:9">
+      <c r="B48" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="11">
+        <v>6.0226651372549048E-5</v>
+      </c>
       <c r="E48" s="8">
         <v>4</v>
       </c>
@@ -15142,7 +16325,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="5:7">
+    <row r="49" spans="2:7">
+      <c r="B49" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" s="11">
+        <v>5.2378614509803935E-5</v>
+      </c>
       <c r="E49" s="8">
         <v>4</v>
       </c>
@@ -15153,7 +16342,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="5:7">
+    <row r="50" spans="2:7">
+      <c r="B50" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" s="11">
+        <v>4.8143287058823546E-5</v>
+      </c>
       <c r="E50" s="8">
         <v>4</v>
       </c>
@@ -15164,7 +16359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="5:7">
+    <row r="51" spans="2:7">
       <c r="E51" s="8">
         <v>4</v>
       </c>
@@ -15175,7 +16370,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="5:7">
+    <row r="52" spans="2:7">
       <c r="E52" s="8">
         <v>4</v>
       </c>
@@ -15186,7 +16381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="5:7">
+    <row r="53" spans="2:7">
       <c r="E53" s="8">
         <v>4</v>
       </c>
@@ -15197,7 +16392,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="5:7">
+    <row r="54" spans="2:7">
       <c r="E54" s="8">
         <v>4</v>
       </c>
@@ -15208,7 +16403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="5:7">
+    <row r="55" spans="2:7">
       <c r="E55" s="8">
         <v>4</v>
       </c>
@@ -15219,7 +16414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="5:7">
+    <row r="56" spans="2:7">
       <c r="E56" s="8">
         <v>4</v>
       </c>
@@ -15230,7 +16425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="5:7">
+    <row r="57" spans="2:7">
       <c r="E57" s="8">
         <v>4</v>
       </c>
@@ -15241,7 +16436,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="5:7">
+    <row r="58" spans="2:7">
       <c r="E58" s="8">
         <v>4</v>
       </c>
@@ -15252,7 +16447,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="5:7">
+    <row r="59" spans="2:7">
       <c r="E59" s="8">
         <v>4</v>
       </c>
@@ -15263,7 +16458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="5:7">
+    <row r="60" spans="2:7">
       <c r="E60" s="8">
         <v>4</v>
       </c>
@@ -15274,7 +16469,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="5:7">
+    <row r="61" spans="2:7">
       <c r="E61" s="8">
         <v>4</v>
       </c>
@@ -15285,7 +16480,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="5:7">
+    <row r="62" spans="2:7">
       <c r="E62" s="8">
         <v>4</v>
       </c>
@@ -15296,7 +16491,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="5:7">
+    <row r="63" spans="2:7">
       <c r="E63" s="8">
         <v>4</v>
       </c>
@@ -15307,7 +16502,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="5:7">
+    <row r="64" spans="2:7">
       <c r="E64" s="8">
         <v>4</v>
       </c>
@@ -15649,10 +16844,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="I17:I19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xjh/pictures/第四章/pictures.xlsx
+++ b/xjh/pictures/第四章/pictures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xjh/thesis/xjh/pictures/第四章/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C1FE73-9CB4-014A-9F9F-BB263C7EFFF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34646536-1633-974C-ABBC-0A9DD0DB4F8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{3023509B-8782-0248-A960-7BF2A7E53CDE}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="54">
   <si>
     <t>CPU</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -236,15 +236,26 @@
     <t>Onera</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Smoother</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>总时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0%"/>
+    <numFmt numFmtId="181" formatCode="0.00000_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -282,6 +293,18 @@
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -335,7 +358,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -375,6 +398,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -384,13 +419,13 @@
   <colors>
     <mruColors>
       <color rgb="FFED7D31"/>
+      <color rgb="FF4471C5"/>
       <color rgb="FFA4A5A6"/>
       <color rgb="FFA4A6A5"/>
       <color rgb="FFA5A5A5"/>
       <color rgb="FFA5A4A6"/>
       <color rgb="FFA5A5A4"/>
       <color rgb="FFFEC003"/>
-      <color rgb="FF4471C5"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2724,6 +2759,1216 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17510436995240913"/>
+          <c:y val="0.19006754603234949"/>
+          <c:w val="0.80981257969308307"/>
+          <c:h val="0.77946063221142503"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Onera M6 &amp;&amp; F4'!$V$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Onera M6 &amp;&amp; F4'!$U$71:$U$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Onera M6 &amp;&amp; F4'!$V$71:$V$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22780800000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.71757E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.71743E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.6433099999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.17542E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.31824E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.4888000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.0195200000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9070299999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00E+00">
+                  <c:v>8.9088300000000006E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C9B3-0C4D-8FD9-CE40BBE76AD0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Onera M6 &amp;&amp; F4'!$W$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU ILU(0)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Onera M6 &amp;&amp; F4'!$U$71:$U$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Onera M6 &amp;&amp; F4'!$W$71:$W$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38440000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18712592</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.6949939151999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.3540990120220797E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.6605964408259195E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5752295961210345E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6860028165804411E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.9642766459904063E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.0871766030355396E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.8106956693789874E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.7739907526278156E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.9897554742317556E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.1786348140726804E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.6034752231574927E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.1578694586420254E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.6770737230633377E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.6162687138357945E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.7656983545759231E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.9628346670398513E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.2043489922776493E-4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.7692105012020413E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.3037312183357842E-4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.2747438872407693E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C9B3-0C4D-8FD9-CE40BBE76AD0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Onera M6 &amp;&amp; F4'!$X$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU ILU(1)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="ED7D31"/>
+              </a:solidFill>
+              <a:prstDash val="dashDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Onera M6 &amp;&amp; F4'!$U$71:$U$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Onera M6 &amp;&amp; F4'!$X$71:$X$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25840000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.917376000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5897382784000009E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9991252472409602E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.60067419001013E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.8629113467684813E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5392268781781005E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9504679325639512E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2313304058276223E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.8177167465995736E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.9798855675839285E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5955163578247437E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.512407381704478E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.505480394012644E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C9B3-0C4D-8FD9-CE40BBE76AD0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="169613664"/>
+        <c:axId val="169297072"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="169613664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>子空间数目</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.4826428302200953"/>
+              <c:y val="2.9489574385675552E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="high"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="b" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="169297072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="4"/>
+        <c:tickMarkSkip val="4"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="169297072"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1.0000000000000003E-4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>残差</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>/</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>初始残差</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="169613664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.27984102466230565"/>
+          <c:y val="0.24486973163100942"/>
+          <c:w val="0.69155893802289725"/>
+          <c:h val="8.5398950541026114E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Onera M6 &amp;&amp; F4'!$Z$72</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>总时间</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ED7D31"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-E01D-2448-A7C4-61CF7502F84C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Onera M6 &amp;&amp; F4'!$AA$71:$AB$71</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>GPU ILU(0)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GPU ILU(1)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Onera M6 &amp;&amp; F4'!$AA$72:$AB$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>146.434</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>234.148</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E01D-2448-A7C4-61CF7502F84C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="32"/>
+        <c:overlap val="-27"/>
+        <c:axId val="152343840"/>
+        <c:axId val="158287696"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="152343840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="158287696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="158287696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1050">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>总耗时</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1050">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>/ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="152343840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -7080,6 +8325,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -9448,6 +10773,1025 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -13870,8 +16214,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9005387" y="4806125"/>
-          <a:ext cx="9741716" cy="2432350"/>
+          <a:off x="8987607" y="4813745"/>
+          <a:ext cx="9772196" cy="2432350"/>
           <a:chOff x="3979262" y="18216410"/>
           <a:chExt cx="9924999" cy="2366627"/>
         </a:xfrm>
@@ -14015,6 +16359,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>33939</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>56564</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>491139</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>162128</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="图表 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A743FF0-1783-034C-884F-E8F3163070D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>663823</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>164110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>333263</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>7026</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="20" name="图表 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAA41DDB-5D8D-9148-A474-32A987EB0E06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -15655,10 +18071,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266CDA95-DF76-D54E-8B6D-9940125746EB}">
-  <dimension ref="A2:O94"/>
+  <dimension ref="A2:AH135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D5" zoomScale="125" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="194" workbookViewId="0">
+      <selection activeCell="AA75" sqref="AA75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -16513,7 +18929,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="5:7">
+    <row r="65" spans="5:28">
       <c r="E65" s="8">
         <v>4</v>
       </c>
@@ -16524,7 +18940,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="5:7">
+    <row r="66" spans="5:28">
       <c r="E66" s="8">
         <v>4</v>
       </c>
@@ -16535,7 +18951,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="5:7">
+    <row r="67" spans="5:28">
       <c r="E67" s="8">
         <v>4</v>
       </c>
@@ -16546,7 +18962,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="5:7">
+    <row r="68" spans="5:28">
       <c r="E68" s="8">
         <v>4</v>
       </c>
@@ -16557,7 +18973,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="5:7">
+    <row r="69" spans="5:28">
       <c r="E69" s="8">
         <v>4</v>
       </c>
@@ -16568,7 +18984,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="5:7">
+    <row r="70" spans="5:28">
       <c r="E70" s="8">
         <v>4</v>
       </c>
@@ -16578,8 +18994,17 @@
       <c r="G70">
         <v>6</v>
       </c>
+      <c r="V70" t="s">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>45</v>
+      </c>
+      <c r="X70" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="71" spans="5:7">
+    <row r="71" spans="5:28">
       <c r="E71" s="8">
         <v>4</v>
       </c>
@@ -16589,8 +19014,38 @@
       <c r="G71">
         <v>7</v>
       </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>1</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+      <c r="V71">
+        <v>1</v>
+      </c>
+      <c r="W71">
+        <v>1</v>
+      </c>
+      <c r="X71">
+        <v>1</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB71" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="72" spans="5:7">
+    <row r="72" spans="5:28">
       <c r="E72" s="8">
         <v>4</v>
       </c>
@@ -16600,8 +19055,57 @@
       <c r="G72">
         <v>7</v>
       </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72" s="16">
+        <v>0.38440000000000002</v>
+      </c>
+      <c r="P72" s="14">
+        <f>O72</f>
+        <v>0.38440000000000002</v>
+      </c>
+      <c r="Q72">
+        <v>1</v>
+      </c>
+      <c r="R72" s="14">
+        <v>0.25840000000000002</v>
+      </c>
+      <c r="S72">
+        <f>R72</f>
+        <v>0.25840000000000002</v>
+      </c>
+      <c r="U72">
+        <v>1</v>
+      </c>
+      <c r="V72">
+        <v>0.22780800000000001</v>
+      </c>
+      <c r="W72">
+        <v>0.38440000000000002</v>
+      </c>
+      <c r="X72">
+        <v>0.25840000000000002</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA72">
+        <f>0.146434*1000</f>
+        <v>146.434</v>
+      </c>
+      <c r="AB72">
+        <f>1000*0.234148</f>
+        <v>234.148</v>
+      </c>
     </row>
-    <row r="73" spans="5:7">
+    <row r="73" spans="5:28">
       <c r="E73" s="8">
         <v>4</v>
       </c>
@@ -16611,8 +19115,46 @@
       <c r="G73">
         <v>7</v>
       </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>0.22780800000000001</v>
+      </c>
+      <c r="N73">
+        <v>2</v>
+      </c>
+      <c r="O73" s="15">
+        <v>0.48680000000000001</v>
+      </c>
+      <c r="P73">
+        <f>O73*P72</f>
+        <v>0.18712592</v>
+      </c>
+      <c r="Q73">
+        <v>2</v>
+      </c>
+      <c r="R73">
+        <v>0.30640000000000001</v>
+      </c>
+      <c r="S73">
+        <f>R73*S72</f>
+        <v>7.917376000000001E-2</v>
+      </c>
+      <c r="U73">
+        <v>2</v>
+      </c>
+      <c r="V73">
+        <v>7.71757E-2</v>
+      </c>
+      <c r="W73">
+        <v>0.18712592</v>
+      </c>
+      <c r="X73">
+        <v>7.917376000000001E-2</v>
+      </c>
     </row>
-    <row r="74" spans="5:7">
+    <row r="74" spans="5:28">
       <c r="E74" s="8">
         <v>4</v>
       </c>
@@ -16622,8 +19164,50 @@
       <c r="G74">
         <v>7</v>
       </c>
+      <c r="K74">
+        <v>2</v>
+      </c>
+      <c r="L74">
+        <v>7.71757E-2</v>
+      </c>
+      <c r="N74">
+        <v>3</v>
+      </c>
+      <c r="O74" s="15">
+        <v>0.5181</v>
+      </c>
+      <c r="P74">
+        <f t="shared" ref="P74:P94" si="5">O74*P73</f>
+        <v>9.6949939151999995E-2</v>
+      </c>
+      <c r="Q74">
+        <v>3</v>
+      </c>
+      <c r="R74">
+        <v>0.45340000000000003</v>
+      </c>
+      <c r="S74">
+        <f t="shared" ref="S74:S94" si="6">R74*S73</f>
+        <v>3.5897382784000009E-2</v>
+      </c>
+      <c r="U74">
+        <v>3</v>
+      </c>
+      <c r="V74">
+        <v>3.2998E-2</v>
+      </c>
+      <c r="W74">
+        <v>9.6949939151999995E-2</v>
+      </c>
+      <c r="X74">
+        <v>3.5897382784000009E-2</v>
+      </c>
+      <c r="AA74">
+        <f>AA72/AB72</f>
+        <v>0.62539077848198577</v>
+      </c>
     </row>
-    <row r="75" spans="5:7">
+    <row r="75" spans="5:28">
       <c r="E75" s="8">
         <v>4</v>
       </c>
@@ -16633,8 +19217,46 @@
       <c r="G75">
         <v>7</v>
       </c>
+      <c r="K75">
+        <v>3</v>
+      </c>
+      <c r="L75">
+        <v>3.2998E-2</v>
+      </c>
+      <c r="N75">
+        <v>4</v>
+      </c>
+      <c r="O75" s="15">
+        <v>0.65539999999999998</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="5"/>
+        <v>6.3540990120220797E-2</v>
+      </c>
+      <c r="Q75">
+        <v>4</v>
+      </c>
+      <c r="R75">
+        <v>0.55689999999999995</v>
+      </c>
+      <c r="S75">
+        <f t="shared" si="6"/>
+        <v>1.9991252472409602E-2</v>
+      </c>
+      <c r="U75">
+        <v>4</v>
+      </c>
+      <c r="V75">
+        <v>1.71743E-2</v>
+      </c>
+      <c r="W75">
+        <v>6.3540990120220797E-2</v>
+      </c>
+      <c r="X75">
+        <v>1.9991252472409602E-2</v>
+      </c>
     </row>
-    <row r="76" spans="5:7">
+    <row r="76" spans="5:28">
       <c r="E76" s="8">
         <v>4</v>
       </c>
@@ -16644,8 +19266,46 @@
       <c r="G76">
         <v>7</v>
       </c>
+      <c r="K76">
+        <v>4</v>
+      </c>
+      <c r="L76">
+        <v>1.71743E-2</v>
+      </c>
+      <c r="N76">
+        <v>5</v>
+      </c>
+      <c r="O76" s="15">
+        <v>0.57609999999999995</v>
+      </c>
+      <c r="P76">
+        <f t="shared" si="5"/>
+        <v>3.6605964408259195E-2</v>
+      </c>
+      <c r="Q76">
+        <v>5</v>
+      </c>
+      <c r="R76">
+        <v>0.38019999999999998</v>
+      </c>
+      <c r="S76">
+        <f t="shared" si="6"/>
+        <v>7.60067419001013E-3</v>
+      </c>
+      <c r="U76">
+        <v>5</v>
+      </c>
+      <c r="V76">
+        <v>8.6433099999999995E-3</v>
+      </c>
+      <c r="W76">
+        <v>3.6605964408259195E-2</v>
+      </c>
+      <c r="X76">
+        <v>7.60067419001013E-3</v>
+      </c>
     </row>
-    <row r="77" spans="5:7">
+    <row r="77" spans="5:28">
       <c r="E77" s="8">
         <v>4</v>
       </c>
@@ -16655,8 +19315,46 @@
       <c r="G77">
         <v>7</v>
       </c>
+      <c r="K77">
+        <v>5</v>
+      </c>
+      <c r="L77">
+        <v>8.6433099999999995E-3</v>
+      </c>
+      <c r="N77">
+        <v>6</v>
+      </c>
+      <c r="O77" s="14">
+        <v>0.70350000000000001</v>
+      </c>
+      <c r="P77">
+        <f t="shared" si="5"/>
+        <v>2.5752295961210345E-2</v>
+      </c>
+      <c r="Q77">
+        <v>6</v>
+      </c>
+      <c r="R77">
+        <v>0.63980000000000004</v>
+      </c>
+      <c r="S77">
+        <f t="shared" si="6"/>
+        <v>4.8629113467684813E-3</v>
+      </c>
+      <c r="U77">
+        <v>6</v>
+      </c>
+      <c r="V77">
+        <v>3.17542E-3</v>
+      </c>
+      <c r="W77">
+        <v>2.5752295961210345E-2</v>
+      </c>
+      <c r="X77">
+        <v>4.8629113467684813E-3</v>
+      </c>
     </row>
-    <row r="78" spans="5:7">
+    <row r="78" spans="5:28">
       <c r="E78" s="8">
         <v>4</v>
       </c>
@@ -16666,8 +19364,46 @@
       <c r="G78">
         <v>7</v>
       </c>
+      <c r="K78">
+        <v>6</v>
+      </c>
+      <c r="L78">
+        <v>3.17542E-3</v>
+      </c>
+      <c r="N78">
+        <v>7</v>
+      </c>
+      <c r="O78" s="14">
+        <v>0.65469999999999995</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="5"/>
+        <v>1.6860028165804411E-2</v>
+      </c>
+      <c r="Q78">
+        <v>7</v>
+      </c>
+      <c r="R78">
+        <v>0.7278</v>
+      </c>
+      <c r="S78">
+        <f t="shared" si="6"/>
+        <v>3.5392268781781005E-3</v>
+      </c>
+      <c r="U78">
+        <v>7</v>
+      </c>
+      <c r="V78">
+        <v>1.31824E-3</v>
+      </c>
+      <c r="W78">
+        <v>1.6860028165804411E-2</v>
+      </c>
+      <c r="X78">
+        <v>3.5392268781781005E-3</v>
+      </c>
     </row>
-    <row r="79" spans="5:7">
+    <row r="79" spans="5:28">
       <c r="E79" s="8">
         <v>4</v>
       </c>
@@ -16677,8 +19413,46 @@
       <c r="G79">
         <v>7</v>
       </c>
+      <c r="K79">
+        <v>7</v>
+      </c>
+      <c r="L79">
+        <v>1.31824E-3</v>
+      </c>
+      <c r="N79">
+        <v>8</v>
+      </c>
+      <c r="O79" s="14">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="P79">
+        <f t="shared" si="5"/>
+        <v>9.9642766459904063E-3</v>
+      </c>
+      <c r="Q79">
+        <v>8</v>
+      </c>
+      <c r="R79">
+        <v>0.55110000000000003</v>
+      </c>
+      <c r="S79">
+        <f t="shared" si="6"/>
+        <v>1.9504679325639512E-3</v>
+      </c>
+      <c r="U79">
+        <v>8</v>
+      </c>
+      <c r="V79">
+        <v>7.4888000000000005E-4</v>
+      </c>
+      <c r="W79">
+        <v>9.9642766459904063E-3</v>
+      </c>
+      <c r="X79">
+        <v>1.9504679325639512E-3</v>
+      </c>
     </row>
-    <row r="80" spans="5:7">
+    <row r="80" spans="5:28">
       <c r="E80" s="8">
         <v>4</v>
       </c>
@@ -16688,8 +19462,46 @@
       <c r="G80">
         <v>7</v>
       </c>
+      <c r="K80">
+        <v>8</v>
+      </c>
+      <c r="L80">
+        <v>7.4888000000000005E-4</v>
+      </c>
+      <c r="N80">
+        <v>9</v>
+      </c>
+      <c r="O80" s="14">
+        <v>0.6109</v>
+      </c>
+      <c r="P80">
+        <f t="shared" si="5"/>
+        <v>6.0871766030355396E-3</v>
+      </c>
+      <c r="Q80">
+        <v>9</v>
+      </c>
+      <c r="R80">
+        <v>0.63129999999999997</v>
+      </c>
+      <c r="S80">
+        <f t="shared" si="6"/>
+        <v>1.2313304058276223E-3</v>
+      </c>
+      <c r="U80">
+        <v>9</v>
+      </c>
+      <c r="V80">
+        <v>4.0195200000000002E-4</v>
+      </c>
+      <c r="W80">
+        <v>6.0871766030355396E-3</v>
+      </c>
+      <c r="X80">
+        <v>1.2313304058276223E-3</v>
+      </c>
     </row>
-    <row r="81" spans="5:7">
+    <row r="81" spans="5:24">
       <c r="E81" s="8">
         <v>4</v>
       </c>
@@ -16699,8 +19511,46 @@
       <c r="G81">
         <v>7</v>
       </c>
+      <c r="K81">
+        <v>9</v>
+      </c>
+      <c r="L81">
+        <v>4.0195200000000002E-4</v>
+      </c>
+      <c r="N81">
+        <v>10</v>
+      </c>
+      <c r="O81" s="14">
+        <v>0.7903</v>
+      </c>
+      <c r="P81">
+        <f t="shared" si="5"/>
+        <v>4.8106956693789874E-3</v>
+      </c>
+      <c r="Q81">
+        <v>10</v>
+      </c>
+      <c r="R81">
+        <v>0.63490000000000002</v>
+      </c>
+      <c r="S81">
+        <f t="shared" si="6"/>
+        <v>7.8177167465995736E-4</v>
+      </c>
+      <c r="U81">
+        <v>10</v>
+      </c>
+      <c r="V81">
+        <v>1.9070299999999999E-4</v>
+      </c>
+      <c r="W81">
+        <v>4.8106956693789874E-3</v>
+      </c>
+      <c r="X81">
+        <v>7.8177167465995736E-4</v>
+      </c>
     </row>
-    <row r="82" spans="5:7">
+    <row r="82" spans="5:24">
       <c r="E82" s="8">
         <v>4</v>
       </c>
@@ -16710,8 +19560,46 @@
       <c r="G82">
         <v>7</v>
       </c>
+      <c r="K82">
+        <v>10</v>
+      </c>
+      <c r="L82">
+        <v>1.9070299999999999E-4</v>
+      </c>
+      <c r="N82">
+        <v>11</v>
+      </c>
+      <c r="O82" s="14">
+        <v>0.78449999999999998</v>
+      </c>
+      <c r="P82">
+        <f t="shared" si="5"/>
+        <v>3.7739907526278156E-3</v>
+      </c>
+      <c r="Q82">
+        <v>11</v>
+      </c>
+      <c r="R82">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="S82">
+        <f t="shared" si="6"/>
+        <v>4.9798855675839285E-4</v>
+      </c>
+      <c r="U82">
+        <v>11</v>
+      </c>
+      <c r="V82" s="13">
+        <v>8.9088300000000006E-5</v>
+      </c>
+      <c r="W82">
+        <v>3.7739907526278156E-3</v>
+      </c>
+      <c r="X82">
+        <v>4.9798855675839285E-4</v>
+      </c>
     </row>
-    <row r="83" spans="5:7">
+    <row r="83" spans="5:24">
       <c r="E83" s="8">
         <v>4</v>
       </c>
@@ -16721,8 +19609,43 @@
       <c r="G83">
         <v>7</v>
       </c>
+      <c r="K83">
+        <v>11</v>
+      </c>
+      <c r="L83" s="13">
+        <v>8.9088300000000006E-5</v>
+      </c>
+      <c r="N83">
+        <v>12</v>
+      </c>
+      <c r="O83" s="14">
+        <v>0.79220000000000002</v>
+      </c>
+      <c r="P83">
+        <f t="shared" si="5"/>
+        <v>2.9897554742317556E-3</v>
+      </c>
+      <c r="Q83">
+        <v>12</v>
+      </c>
+      <c r="R83">
+        <v>0.5212</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="6"/>
+        <v>2.5955163578247437E-4</v>
+      </c>
+      <c r="U83">
+        <v>12</v>
+      </c>
+      <c r="W83">
+        <v>2.9897554742317556E-3</v>
+      </c>
+      <c r="X83">
+        <v>2.5955163578247437E-4</v>
+      </c>
     </row>
-    <row r="84" spans="5:7">
+    <row r="84" spans="5:24">
       <c r="E84" s="8">
         <v>4</v>
       </c>
@@ -16732,8 +19655,37 @@
       <c r="G84">
         <v>7</v>
       </c>
+      <c r="N84">
+        <v>13</v>
+      </c>
+      <c r="O84" s="14">
+        <v>0.72870000000000001</v>
+      </c>
+      <c r="P84">
+        <f t="shared" si="5"/>
+        <v>2.1786348140726804E-3</v>
+      </c>
+      <c r="Q84">
+        <v>13</v>
+      </c>
+      <c r="R84">
+        <v>0.5827</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="6"/>
+        <v>1.512407381704478E-4</v>
+      </c>
+      <c r="U84">
+        <v>13</v>
+      </c>
+      <c r="W84">
+        <v>2.1786348140726804E-3</v>
+      </c>
+      <c r="X84">
+        <v>1.512407381704478E-4</v>
+      </c>
     </row>
-    <row r="85" spans="5:7">
+    <row r="85" spans="5:24">
       <c r="E85" s="8">
         <v>4</v>
       </c>
@@ -16743,8 +19695,37 @@
       <c r="G85">
         <v>7</v>
       </c>
+      <c r="N85">
+        <v>14</v>
+      </c>
+      <c r="O85" s="14">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="P85">
+        <f t="shared" si="5"/>
+        <v>1.6034752231574927E-3</v>
+      </c>
+      <c r="Q85">
+        <v>14</v>
+      </c>
+      <c r="R85">
+        <v>0.62849999999999995</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="6"/>
+        <v>9.505480394012644E-5</v>
+      </c>
+      <c r="U85">
+        <v>14</v>
+      </c>
+      <c r="W85">
+        <v>1.6034752231574927E-3</v>
+      </c>
+      <c r="X85">
+        <v>9.505480394012644E-5</v>
+      </c>
     </row>
-    <row r="86" spans="5:7">
+    <row r="86" spans="5:24">
       <c r="E86" s="8">
         <v>4</v>
       </c>
@@ -16754,8 +19735,31 @@
       <c r="G86">
         <v>7</v>
       </c>
+      <c r="N86">
+        <v>15</v>
+      </c>
+      <c r="O86" s="14">
+        <v>0.72209999999999996</v>
+      </c>
+      <c r="P86">
+        <f t="shared" si="5"/>
+        <v>1.1578694586420254E-3</v>
+      </c>
+      <c r="Q86">
+        <v>15</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U86">
+        <v>15</v>
+      </c>
+      <c r="W86">
+        <v>1.1578694586420254E-3</v>
+      </c>
     </row>
-    <row r="87" spans="5:7">
+    <row r="87" spans="5:24">
       <c r="E87" s="8">
         <v>4</v>
       </c>
@@ -16765,8 +19769,31 @@
       <c r="G87">
         <v>7</v>
       </c>
+      <c r="N87">
+        <v>16</v>
+      </c>
+      <c r="O87" s="14">
+        <v>0.74939999999999996</v>
+      </c>
+      <c r="P87">
+        <f t="shared" si="5"/>
+        <v>8.6770737230633377E-4</v>
+      </c>
+      <c r="Q87">
+        <v>16</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U87">
+        <v>16</v>
+      </c>
+      <c r="W87">
+        <v>8.6770737230633377E-4</v>
+      </c>
     </row>
-    <row r="88" spans="5:7">
+    <row r="88" spans="5:24">
       <c r="E88" s="8">
         <v>4</v>
       </c>
@@ -16776,8 +19803,31 @@
       <c r="G88">
         <v>7</v>
       </c>
+      <c r="N88">
+        <v>17</v>
+      </c>
+      <c r="O88" s="14">
+        <v>0.76249999999999996</v>
+      </c>
+      <c r="P88">
+        <f t="shared" si="5"/>
+        <v>6.6162687138357945E-4</v>
+      </c>
+      <c r="Q88">
+        <v>17</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U88">
+        <v>17</v>
+      </c>
+      <c r="W88">
+        <v>6.6162687138357945E-4</v>
+      </c>
     </row>
-    <row r="89" spans="5:7">
+    <row r="89" spans="5:24">
       <c r="E89" s="8">
         <v>4</v>
       </c>
@@ -16787,8 +19837,31 @@
       <c r="G89">
         <v>7</v>
       </c>
+      <c r="N89">
+        <v>18</v>
+      </c>
+      <c r="O89" s="14">
+        <v>0.72030000000000005</v>
+      </c>
+      <c r="P89">
+        <f t="shared" si="5"/>
+        <v>4.7656983545759231E-4</v>
+      </c>
+      <c r="Q89">
+        <v>18</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U89">
+        <v>18</v>
+      </c>
+      <c r="W89">
+        <v>4.7656983545759231E-4</v>
+      </c>
     </row>
-    <row r="90" spans="5:7">
+    <row r="90" spans="5:24">
       <c r="E90" s="8">
         <v>4</v>
       </c>
@@ -16798,8 +19871,31 @@
       <c r="G90">
         <v>7</v>
       </c>
+      <c r="N90">
+        <v>19</v>
+      </c>
+      <c r="O90" s="14">
+        <v>0.62170000000000003</v>
+      </c>
+      <c r="P90">
+        <f t="shared" si="5"/>
+        <v>2.9628346670398513E-4</v>
+      </c>
+      <c r="Q90">
+        <v>19</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U90">
+        <v>19</v>
+      </c>
+      <c r="W90">
+        <v>2.9628346670398513E-4</v>
+      </c>
     </row>
-    <row r="91" spans="5:7">
+    <row r="91" spans="5:24">
       <c r="E91" s="8">
         <v>4</v>
       </c>
@@ -16809,8 +19905,31 @@
       <c r="G91">
         <v>7</v>
       </c>
+      <c r="N91">
+        <v>20</v>
+      </c>
+      <c r="O91" s="14">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="P91">
+        <f t="shared" si="5"/>
+        <v>2.2043489922776493E-4</v>
+      </c>
+      <c r="Q91">
+        <v>20</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U91">
+        <v>20</v>
+      </c>
+      <c r="W91">
+        <v>2.2043489922776493E-4</v>
+      </c>
     </row>
-    <row r="92" spans="5:7">
+    <row r="92" spans="5:24">
       <c r="E92" s="8">
         <v>4</v>
       </c>
@@ -16820,8 +19939,31 @@
       <c r="G92">
         <v>7</v>
       </c>
+      <c r="N92">
+        <v>21</v>
+      </c>
+      <c r="O92" s="14">
+        <v>0.80259999999999998</v>
+      </c>
+      <c r="P92">
+        <f t="shared" si="5"/>
+        <v>1.7692105012020413E-4</v>
+      </c>
+      <c r="Q92">
+        <v>21</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U92">
+        <v>21</v>
+      </c>
+      <c r="W92">
+        <v>1.7692105012020413E-4</v>
+      </c>
     </row>
-    <row r="93" spans="5:7">
+    <row r="93" spans="5:24">
       <c r="E93" s="8">
         <v>4</v>
       </c>
@@ -16831,8 +19973,31 @@
       <c r="G93">
         <v>7</v>
       </c>
+      <c r="N93">
+        <v>22</v>
+      </c>
+      <c r="O93" s="14">
+        <v>0.7369</v>
+      </c>
+      <c r="P93">
+        <f t="shared" si="5"/>
+        <v>1.3037312183357842E-4</v>
+      </c>
+      <c r="Q93">
+        <v>22</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U93">
+        <v>22</v>
+      </c>
+      <c r="W93">
+        <v>1.3037312183357842E-4</v>
+      </c>
     </row>
-    <row r="94" spans="5:7">
+    <row r="94" spans="5:24">
       <c r="E94" s="8">
         <v>4</v>
       </c>
@@ -16842,6 +20007,459 @@
       <c r="G94">
         <v>7</v>
       </c>
+      <c r="N94">
+        <v>23</v>
+      </c>
+      <c r="O94" s="14">
+        <v>0.71140000000000003</v>
+      </c>
+      <c r="P94">
+        <f t="shared" si="5"/>
+        <v>9.2747438872407693E-5</v>
+      </c>
+      <c r="Q94">
+        <v>23</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U94">
+        <v>23</v>
+      </c>
+      <c r="W94">
+        <v>9.2747438872407693E-5</v>
+      </c>
+    </row>
+    <row r="95" spans="5:24">
+      <c r="N95" s="13"/>
+    </row>
+    <row r="96" spans="5:24">
+      <c r="P96" s="14"/>
+    </row>
+    <row r="97" spans="14:34">
+      <c r="N97" s="13"/>
+    </row>
+    <row r="99" spans="14:34">
+      <c r="N99" s="13"/>
+    </row>
+    <row r="101" spans="14:34">
+      <c r="N101" s="13"/>
+    </row>
+    <row r="102" spans="14:34">
+      <c r="O102" t="s">
+        <v>51</v>
+      </c>
+      <c r="P102" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q102">
+        <v>6.7182400000000003E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="14:34">
+      <c r="N103" s="13"/>
+      <c r="P103">
+        <v>0</v>
+      </c>
+      <c r="Q103">
+        <v>2.19794</v>
+      </c>
+      <c r="R103" s="13">
+        <v>8.1316549999999998E-4</v>
+      </c>
+      <c r="S103">
+        <v>0.25840000000000002</v>
+      </c>
+    </row>
+    <row r="104" spans="14:34">
+      <c r="O104" t="s">
+        <v>51</v>
+      </c>
+      <c r="P104" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q104">
+        <v>1.3445199999999999E-2</v>
+      </c>
+      <c r="U104" s="14">
+        <v>0.25840000000000002</v>
+      </c>
+      <c r="V104">
+        <v>0.30640000000000001</v>
+      </c>
+      <c r="W104">
+        <v>0.45340000000000003</v>
+      </c>
+      <c r="X104">
+        <v>0.55689999999999995</v>
+      </c>
+      <c r="Y104">
+        <v>0.38019999999999998</v>
+      </c>
+      <c r="Z104">
+        <v>0.63980000000000004</v>
+      </c>
+      <c r="AA104">
+        <v>0.7278</v>
+      </c>
+      <c r="AB104">
+        <v>0.55110000000000003</v>
+      </c>
+      <c r="AC104">
+        <v>0.63129999999999997</v>
+      </c>
+      <c r="AD104">
+        <v>0.63490000000000002</v>
+      </c>
+      <c r="AE104">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="AF104">
+        <v>0.5212</v>
+      </c>
+      <c r="AG104">
+        <v>0.5827</v>
+      </c>
+      <c r="AH104">
+        <v>0.62849999999999995</v>
+      </c>
+    </row>
+    <row r="105" spans="14:34">
+      <c r="N105" s="13"/>
+      <c r="P105">
+        <v>1</v>
+      </c>
+      <c r="Q105">
+        <v>2.1979000000000002</v>
+      </c>
+      <c r="R105" s="13">
+        <v>2.491285E-4</v>
+      </c>
+      <c r="S105">
+        <v>0.30640000000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="14:34">
+      <c r="O106" t="s">
+        <v>51</v>
+      </c>
+      <c r="P106" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q106">
+        <v>2.0156899999999998E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="14:34">
+      <c r="N107" s="13"/>
+      <c r="P107">
+        <v>2</v>
+      </c>
+      <c r="Q107">
+        <v>2.1979000000000002</v>
+      </c>
+      <c r="R107" s="13">
+        <v>1.129641E-4</v>
+      </c>
+      <c r="S107">
+        <v>0.45340000000000003</v>
+      </c>
+    </row>
+    <row r="108" spans="14:34">
+      <c r="O108" t="s">
+        <v>51</v>
+      </c>
+      <c r="P108" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q108">
+        <v>2.6865900000000002E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="14:34">
+      <c r="N109" s="13"/>
+      <c r="P109">
+        <v>3</v>
+      </c>
+      <c r="Q109">
+        <v>2.1979000000000002</v>
+      </c>
+      <c r="R109" s="13">
+        <v>6.2905389999999995E-5</v>
+      </c>
+      <c r="S109">
+        <v>0.55689999999999995</v>
+      </c>
+    </row>
+    <row r="110" spans="14:34">
+      <c r="O110" t="s">
+        <v>51</v>
+      </c>
+      <c r="P110" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q110">
+        <v>3.35733E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="14:34">
+      <c r="N111" s="13"/>
+      <c r="P111">
+        <v>4</v>
+      </c>
+      <c r="Q111">
+        <v>2.1979000000000002</v>
+      </c>
+      <c r="R111" s="13">
+        <v>2.3914739999999999E-5</v>
+      </c>
+      <c r="S111">
+        <v>0.38019999999999998</v>
+      </c>
+    </row>
+    <row r="112" spans="14:34">
+      <c r="O112" t="s">
+        <v>51</v>
+      </c>
+      <c r="P112" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q112">
+        <v>4.0285099999999997E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="14:19">
+      <c r="N113" s="13"/>
+      <c r="P113">
+        <v>5</v>
+      </c>
+      <c r="Q113">
+        <v>2.1979000000000002</v>
+      </c>
+      <c r="R113" s="13">
+        <v>1.5299609999999999E-5</v>
+      </c>
+      <c r="S113">
+        <v>0.63980000000000004</v>
+      </c>
+    </row>
+    <row r="114" spans="14:19">
+      <c r="O114" t="s">
+        <v>51</v>
+      </c>
+      <c r="P114" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q114">
+        <v>4.6993899999999998E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="14:19">
+      <c r="N115" s="13"/>
+      <c r="P115">
+        <v>6</v>
+      </c>
+      <c r="Q115">
+        <v>2.1979000000000002</v>
+      </c>
+      <c r="R115" s="13">
+        <v>1.113547E-5</v>
+      </c>
+      <c r="S115">
+        <v>0.7278</v>
+      </c>
+    </row>
+    <row r="116" spans="14:19">
+      <c r="O116" t="s">
+        <v>51</v>
+      </c>
+      <c r="P116" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q116">
+        <v>5.37013E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="14:19">
+      <c r="N117" s="13"/>
+      <c r="P117">
+        <v>7</v>
+      </c>
+      <c r="Q117">
+        <v>2.1979000000000002</v>
+      </c>
+      <c r="R117" s="13">
+        <v>6.1364710000000003E-6</v>
+      </c>
+      <c r="S117">
+        <v>0.55110000000000003</v>
+      </c>
+    </row>
+    <row r="118" spans="14:19">
+      <c r="O118" t="s">
+        <v>51</v>
+      </c>
+      <c r="P118" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q118">
+        <v>6.04033E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="14:19">
+      <c r="N119" s="13"/>
+      <c r="P119">
+        <v>8</v>
+      </c>
+      <c r="Q119">
+        <v>2.1979000000000002</v>
+      </c>
+      <c r="R119" s="13">
+        <v>3.8738250000000001E-6</v>
+      </c>
+      <c r="S119">
+        <v>0.63129999999999997</v>
+      </c>
+    </row>
+    <row r="120" spans="14:19">
+      <c r="O120" t="s">
+        <v>51</v>
+      </c>
+      <c r="P120" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q120">
+        <v>6.7119499999999999E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="14:19">
+      <c r="N121" s="13"/>
+      <c r="P121">
+        <v>9</v>
+      </c>
+      <c r="Q121">
+        <v>2.1979000000000002</v>
+      </c>
+      <c r="R121" s="13">
+        <v>2.4596839999999999E-6</v>
+      </c>
+      <c r="S121">
+        <v>0.63490000000000002</v>
+      </c>
+    </row>
+    <row r="122" spans="14:19">
+      <c r="O122" t="s">
+        <v>51</v>
+      </c>
+      <c r="P122" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q122">
+        <v>7.38428E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="14:19">
+      <c r="N123" s="13"/>
+      <c r="P123">
+        <v>10</v>
+      </c>
+      <c r="Q123">
+        <v>2.1979000000000002</v>
+      </c>
+      <c r="R123" s="13">
+        <v>1.566846E-6</v>
+      </c>
+      <c r="S123">
+        <v>0.63700000000000001</v>
+      </c>
+    </row>
+    <row r="124" spans="14:19">
+      <c r="O124" t="s">
+        <v>51</v>
+      </c>
+      <c r="P124" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q124">
+        <v>8.0546300000000001E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="14:19">
+      <c r="N125" s="13"/>
+      <c r="P125">
+        <v>11</v>
+      </c>
+      <c r="Q125">
+        <v>2.1979000000000002</v>
+      </c>
+      <c r="R125" s="13">
+        <v>8.1663129999999998E-7</v>
+      </c>
+      <c r="S125">
+        <v>0.5212</v>
+      </c>
+    </row>
+    <row r="126" spans="14:19">
+      <c r="O126" t="s">
+        <v>51</v>
+      </c>
+      <c r="P126" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q126">
+        <v>8.7242299999999995E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="14:19">
+      <c r="N127" s="13"/>
+      <c r="P127">
+        <v>12</v>
+      </c>
+      <c r="Q127">
+        <v>2.1979000000000002</v>
+      </c>
+      <c r="R127" s="13">
+        <v>4.758198E-7</v>
+      </c>
+      <c r="S127">
+        <v>0.5827</v>
+      </c>
+    </row>
+    <row r="128" spans="14:19">
+      <c r="O128" t="s">
+        <v>51</v>
+      </c>
+      <c r="P128" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q128">
+        <v>9.3941499999999997E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="14:19">
+      <c r="N129" s="13"/>
+      <c r="P129">
+        <v>13</v>
+      </c>
+      <c r="Q129">
+        <v>2.1979000000000002</v>
+      </c>
+      <c r="R129" s="13">
+        <v>2.9907570000000002E-7</v>
+      </c>
+      <c r="S129">
+        <v>0.62849999999999995</v>
+      </c>
+    </row>
+    <row r="131" spans="14:19">
+      <c r="N131" s="13"/>
+    </row>
+    <row r="133" spans="14:19">
+      <c r="N133" s="13"/>
+    </row>
+    <row r="135" spans="14:19">
+      <c r="N135" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="5">
